--- a/capiq_data/in_process_data/IQ268363.xlsx
+++ b/capiq_data/in_process_data/IQ268363.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A361C0-7F0D-45F7-B9E5-3B91338FDA97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8B5D69-9B33-4D98-9F4E-5146D2F93468}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"0c8fd969-bf60-4f7b-bd13-f01649512854"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"79e3b4d8-d98a-4838-b024-c183032bfc21"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40545</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>295.55799999999999</v>
+        <v>36.622999999999998</v>
       </c>
       <c r="D2">
-        <v>469.97</v>
+        <v>374.471</v>
       </c>
       <c r="E2">
-        <v>356.76299999999998</v>
+        <v>292.714</v>
       </c>
       <c r="F2">
-        <v>210.93199999999999</v>
+        <v>164.09200000000001</v>
       </c>
       <c r="G2">
-        <v>1084.6120000000001</v>
+        <v>925.90700000000004</v>
       </c>
       <c r="H2">
-        <v>3208.9459999999999</v>
+        <v>2188.3330000000001</v>
       </c>
       <c r="I2">
-        <v>161.042</v>
+        <v>118.17</v>
       </c>
       <c r="J2">
-        <v>424</v>
+        <v>583.33699999999999</v>
       </c>
       <c r="K2">
-        <v>2.2549999999999999</v>
+        <v>183.11</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>515.202</v>
+        <v>645.62</v>
       </c>
       <c r="O2">
-        <v>1283.5550000000001</v>
+        <v>1459.944</v>
       </c>
       <c r="P2">
-        <v>426.255</v>
+        <v>766.447</v>
       </c>
       <c r="Q2">
-        <v>169.09800000000001</v>
+        <v>-7.3460000000000001</v>
       </c>
       <c r="R2">
-        <v>40545</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>6200</v>
+        <v>12500</v>
       </c>
       <c r="T2">
-        <v>1925.3910000000001</v>
+        <v>728.38900000000001</v>
       </c>
       <c r="U2">
-        <v>420.08600000000001</v>
+        <v>125.551</v>
       </c>
       <c r="V2">
-        <v>28.922000000000001</v>
+        <v>62.267000000000003</v>
       </c>
       <c r="W2">
-        <v>-8.2629999999999999</v>
+        <v>-6.9390000000000001</v>
       </c>
       <c r="X2">
-        <v>-307.887</v>
+        <v>-100.101</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>15.308</v>
       </c>
       <c r="AA2">
-        <v>295.55799999999999</v>
+        <v>36.622999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40636</v>
+        <v>36982</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>24.913</v>
+        <v>23.495999999999999</v>
       </c>
       <c r="D3">
-        <v>447.178</v>
+        <v>320.97199999999998</v>
       </c>
       <c r="E3">
-        <v>345.49200000000002</v>
+        <v>349.46699999999998</v>
       </c>
       <c r="F3">
-        <v>200.42099999999999</v>
+        <v>145.37200000000001</v>
       </c>
       <c r="G3">
-        <v>1087.7</v>
+        <v>953.76700000000005</v>
       </c>
       <c r="H3">
-        <v>3306.1</v>
+        <v>2283.1280000000002</v>
       </c>
       <c r="I3">
-        <v>149.196</v>
+        <v>155.334</v>
       </c>
       <c r="J3">
-        <v>514</v>
+        <v>585.66099999999994</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>228.304</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-118.238</v>
+        <v>-2.9990000000000001</v>
       </c>
       <c r="N3">
-        <v>511.214</v>
+        <v>726.27800000000002</v>
       </c>
       <c r="O3">
-        <v>1398.1679999999999</v>
+        <v>1543.97</v>
       </c>
       <c r="P3">
-        <v>516.25</v>
+        <v>813.96500000000003</v>
       </c>
       <c r="Q3">
-        <v>-4.2380000000000004</v>
+        <v>11.106999999999999</v>
       </c>
       <c r="R3">
-        <v>40636</v>
+        <v>36982</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1907.932</v>
+        <v>739.15800000000002</v>
       </c>
       <c r="U3">
-        <v>415.84800000000001</v>
+        <v>136.65799999999999</v>
       </c>
       <c r="V3">
-        <v>42.651000000000003</v>
+        <v>9.7530000000000001</v>
       </c>
       <c r="W3">
-        <v>-8.1059999999999999</v>
+        <v>-7.0149999999999997</v>
       </c>
       <c r="X3">
-        <v>-3.8109999999999999</v>
+        <v>40.561</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-6.9420000000000002</v>
       </c>
       <c r="AA3">
-        <v>24.913</v>
+        <v>23.495999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40727</v>
+        <v>37073</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>29.760999999999999</v>
+        <v>29.408999999999999</v>
       </c>
       <c r="D4">
-        <v>479.065</v>
+        <v>450.06400000000002</v>
       </c>
       <c r="E4">
-        <v>382.71699999999998</v>
+        <v>313.22500000000002</v>
       </c>
       <c r="F4">
-        <v>209.494</v>
+        <v>197.86</v>
       </c>
       <c r="G4">
-        <v>1076.171</v>
+        <v>959.83199999999999</v>
       </c>
       <c r="H4">
-        <v>3595.8589999999999</v>
+        <v>2272.0619999999999</v>
       </c>
       <c r="I4">
-        <v>149.21199999999999</v>
+        <v>102.619</v>
       </c>
       <c r="J4">
-        <v>671</v>
+        <v>589.76</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>228.94399999999999</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>559.35199999999998</v>
+        <v>679.84400000000005</v>
       </c>
       <c r="O4">
-        <v>1639.3979999999999</v>
+        <v>1498.8</v>
       </c>
       <c r="P4">
-        <v>671</v>
+        <v>818.70399999999995</v>
       </c>
       <c r="Q4">
-        <v>-20.64</v>
+        <v>-2.7229999999999999</v>
       </c>
       <c r="R4">
-        <v>40727</v>
+        <v>37073</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1956.461</v>
+        <v>773.26199999999994</v>
       </c>
       <c r="U4">
-        <v>395.20800000000003</v>
+        <v>132.26499999999999</v>
       </c>
       <c r="V4">
-        <v>51.9</v>
+        <v>24.904</v>
       </c>
       <c r="W4">
-        <v>-7.891</v>
+        <v>-7.0659999999999998</v>
       </c>
       <c r="X4">
-        <v>152.61199999999999</v>
+        <v>3.464</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>8.4469999999999992</v>
       </c>
       <c r="AA4">
-        <v>29.760999999999999</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40818</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>36.622</v>
+        <v>31.22</v>
       </c>
       <c r="D5">
-        <v>452.935</v>
+        <v>348.322</v>
       </c>
       <c r="E5">
-        <v>359.67200000000003</v>
+        <v>291.68700000000001</v>
       </c>
       <c r="F5">
-        <v>199.45599999999999</v>
+        <v>159.173</v>
       </c>
       <c r="G5">
-        <v>929.82500000000005</v>
+        <v>1018.519</v>
       </c>
       <c r="H5">
-        <v>3401.9380000000001</v>
+        <v>2269.0500000000002</v>
       </c>
       <c r="I5">
-        <v>150.81299999999999</v>
+        <v>111.812</v>
       </c>
       <c r="J5">
-        <v>150</v>
+        <v>593.90899999999999</v>
       </c>
       <c r="K5">
-        <v>358</v>
+        <v>223.60400000000001</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>875.95699999999999</v>
+        <v>627.26800000000003</v>
       </c>
       <c r="O5">
-        <v>1456.798</v>
+        <v>1456.4649999999999</v>
       </c>
       <c r="P5">
-        <v>508</v>
+        <v>817.51300000000003</v>
       </c>
       <c r="Q5">
-        <v>-147.10599999999999</v>
+        <v>-5.5359999999999996</v>
       </c>
       <c r="R5">
-        <v>40818</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1945.14</v>
+        <v>812.58500000000004</v>
       </c>
       <c r="U5">
-        <v>248.102</v>
+        <v>128.399</v>
       </c>
       <c r="V5">
-        <v>47.798000000000002</v>
+        <v>30.459</v>
       </c>
       <c r="W5">
-        <v>-7.9160000000000004</v>
+        <v>-7.0949999999999998</v>
       </c>
       <c r="X5">
-        <v>-171.09299999999999</v>
+        <v>-9.1820000000000004</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>2.1320000000000001</v>
       </c>
       <c r="AA5">
-        <v>36.622</v>
+        <v>31.219000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40909</v>
+        <v>37255</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-83.641000000000005</v>
+        <v>-49.62</v>
       </c>
       <c r="D6">
-        <v>539.33000000000004</v>
+        <v>405.98099999999999</v>
       </c>
       <c r="E6">
-        <v>409.88799999999998</v>
+        <v>319.06299999999999</v>
       </c>
       <c r="F6">
-        <v>242.59899999999999</v>
+        <v>173.51400000000001</v>
       </c>
       <c r="G6">
-        <v>883.05200000000002</v>
+        <v>943.35799999999995</v>
       </c>
       <c r="H6">
-        <v>3855.6410000000001</v>
+        <v>2969.9380000000001</v>
       </c>
       <c r="I6">
-        <v>173.15299999999999</v>
+        <v>128.952</v>
       </c>
       <c r="J6">
-        <v>944.90800000000002</v>
+        <v>598.125</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>598.68200000000002</v>
+        <v>755.03499999999997</v>
       </c>
       <c r="O6">
-        <v>2013.425</v>
+        <v>1606.3810000000001</v>
       </c>
       <c r="P6">
-        <v>944.90800000000002</v>
+        <v>724.10900000000004</v>
       </c>
       <c r="Q6">
-        <v>-105.76</v>
+        <v>9.8510000000000009</v>
       </c>
       <c r="R6">
-        <v>40909</v>
+        <v>37255</v>
       </c>
       <c r="S6">
-        <v>7200</v>
+        <v>9300</v>
       </c>
       <c r="T6">
-        <v>1842.2159999999999</v>
+        <v>1363.557</v>
       </c>
       <c r="U6">
-        <v>142.34200000000001</v>
+        <v>138.25</v>
       </c>
       <c r="V6">
-        <v>82.525000000000006</v>
+        <v>58.183</v>
       </c>
       <c r="W6">
-        <v>-7.9160000000000004</v>
+        <v>-7.1180000000000003</v>
       </c>
       <c r="X6">
-        <v>419.49599999999998</v>
+        <v>-205.68100000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-0.68600000000000005</v>
       </c>
       <c r="AA6">
-        <v>-83.641000000000005</v>
+        <v>-49.62</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41000</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>22.568999999999999</v>
+        <v>-147.36000000000001</v>
       </c>
       <c r="D7">
-        <v>510.89</v>
+        <v>346.29300000000001</v>
       </c>
       <c r="E7">
-        <v>407.86700000000002</v>
+        <v>277.34800000000001</v>
       </c>
       <c r="F7">
-        <v>236.50899999999999</v>
+        <v>125.73</v>
       </c>
       <c r="G7">
-        <v>908.06399999999996</v>
+        <v>1010.907</v>
       </c>
       <c r="H7">
-        <v>3864.2379999999998</v>
+        <v>2894.3939999999998</v>
       </c>
       <c r="I7">
-        <v>163.00299999999999</v>
+        <v>119.96599999999999</v>
       </c>
       <c r="J7">
-        <v>933.971</v>
+        <v>602.28800000000001</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>221.64</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-123.68300000000001</v>
       </c>
       <c r="M7">
-        <v>-122</v>
+        <v>-4.9960000000000004</v>
       </c>
       <c r="N7">
-        <v>602.78599999999994</v>
+        <v>715.92399999999998</v>
       </c>
       <c r="O7">
-        <v>1981.655</v>
+        <v>1571.598</v>
       </c>
       <c r="P7">
-        <v>933.971</v>
+        <v>823.928</v>
       </c>
       <c r="Q7">
-        <v>2.415</v>
+        <v>32.191000000000003</v>
       </c>
       <c r="R7">
-        <v>41000</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1882.5830000000001</v>
+        <v>1322.796</v>
       </c>
       <c r="U7">
-        <v>144.75700000000001</v>
+        <v>170.441</v>
       </c>
       <c r="V7">
-        <v>15.539</v>
+        <v>-31.088000000000001</v>
       </c>
       <c r="W7">
-        <v>-7.9219999999999997</v>
+        <v>-8.7929999999999993</v>
       </c>
       <c r="X7">
-        <v>-10.195</v>
+        <v>82.397999999999996</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1.7090000000000001</v>
       </c>
       <c r="AA7">
-        <v>22.568999999999999</v>
+        <v>-147.36000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41091</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>33.633000000000003</v>
+        <v>-9.0960000000000001</v>
       </c>
       <c r="D8">
-        <v>521.79</v>
+        <v>383.096</v>
       </c>
       <c r="E8">
-        <v>389.46600000000001</v>
+        <v>284.63099999999997</v>
       </c>
       <c r="F8">
-        <v>239.09399999999999</v>
+        <v>159.898</v>
       </c>
       <c r="G8">
-        <v>897.8</v>
+        <v>863.74400000000003</v>
       </c>
       <c r="H8">
-        <v>3800.9369999999999</v>
+        <v>2708.5569999999998</v>
       </c>
       <c r="I8">
-        <v>174.02799999999999</v>
+        <v>117.68899999999999</v>
       </c>
       <c r="J8">
-        <v>911.04300000000001</v>
+        <v>606.53700000000003</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>99.896000000000001</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>587.68499999999995</v>
+        <v>600.97199999999998</v>
       </c>
       <c r="O8">
-        <v>1915.607</v>
+        <v>1485.164</v>
       </c>
       <c r="P8">
-        <v>911.04300000000001</v>
+        <v>706.43299999999999</v>
       </c>
       <c r="Q8">
-        <v>26.646000000000001</v>
+        <v>-27.097999999999999</v>
       </c>
       <c r="R8">
-        <v>41091</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1885.33</v>
+        <v>1223.393</v>
       </c>
       <c r="U8">
-        <v>171.40299999999999</v>
+        <v>143.34299999999999</v>
       </c>
       <c r="V8">
-        <v>76.39</v>
+        <v>11.605</v>
       </c>
       <c r="W8">
-        <v>-7.9690000000000003</v>
+        <v>-8.8010000000000002</v>
       </c>
       <c r="X8">
-        <v>-38.633000000000003</v>
+        <v>-124.383</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="AA8">
-        <v>33.633000000000003</v>
+        <v>-9.0960000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37528</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>29.594000000000001</v>
+        <v>7.1459999999999999</v>
       </c>
       <c r="D9">
-        <v>509.60399999999998</v>
+        <v>366.01100000000002</v>
       </c>
       <c r="E9">
-        <v>394.93700000000001</v>
+        <v>294.65100000000001</v>
       </c>
       <c r="F9">
-        <v>230.74</v>
+        <v>146.755</v>
       </c>
       <c r="G9">
-        <v>940.99400000000003</v>
+        <v>792.40499999999997</v>
       </c>
       <c r="H9">
-        <v>3889.971</v>
+        <v>2599.3150000000001</v>
       </c>
       <c r="I9">
-        <v>155.72800000000001</v>
+        <v>138.26</v>
       </c>
       <c r="J9">
-        <v>930.86</v>
+        <v>438.79199999999997</v>
       </c>
       <c r="K9">
-        <v>1.47</v>
+        <v>153.21799999999999</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>582.27700000000004</v>
+        <v>672.82899999999995</v>
       </c>
       <c r="O9">
-        <v>1947.5309999999999</v>
+        <v>1386.3779999999999</v>
       </c>
       <c r="P9">
-        <v>932.33</v>
+        <v>592.01</v>
       </c>
       <c r="Q9">
-        <v>-0.57499999999999996</v>
+        <v>-45.793999999999997</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37528</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1942.44</v>
+        <v>1212.9369999999999</v>
       </c>
       <c r="U9">
-        <v>170.828</v>
+        <v>97.549000000000007</v>
       </c>
       <c r="V9">
-        <v>20.716999999999999</v>
+        <v>74.95</v>
       </c>
       <c r="W9">
-        <v>-7.984</v>
+        <v>-8.8420000000000005</v>
       </c>
       <c r="X9">
-        <v>-7.4459999999999997</v>
+        <v>-118.95399999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="AA9">
-        <v>29.594000000000001</v>
+        <v>7.1459999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41273</v>
+        <v>37619</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-15.856</v>
+        <v>-2.6280000000000001</v>
       </c>
       <c r="D10">
-        <v>572.92100000000005</v>
+        <v>409.58100000000002</v>
       </c>
       <c r="E10">
-        <v>457.01100000000002</v>
+        <v>304.64699999999999</v>
       </c>
       <c r="F10">
-        <v>262.09800000000001</v>
+        <v>168.49799999999999</v>
       </c>
       <c r="G10">
-        <v>971.75400000000002</v>
+        <v>988.01400000000001</v>
       </c>
       <c r="H10">
-        <v>3901.7620000000002</v>
+        <v>2825.482</v>
       </c>
       <c r="I10">
-        <v>168.94300000000001</v>
+        <v>146.29</v>
       </c>
       <c r="J10">
-        <v>938.82399999999996</v>
+        <v>614.053</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>581.1</v>
+        <v>684.072</v>
       </c>
       <c r="O10">
-        <v>1961.95</v>
+        <v>1573.1379999999999</v>
       </c>
       <c r="P10">
-        <v>940.596</v>
+        <v>805.54399999999998</v>
       </c>
       <c r="Q10">
-        <v>0.61599999999999999</v>
+        <v>33.066000000000003</v>
       </c>
       <c r="R10">
-        <v>41273</v>
+        <v>37619</v>
       </c>
       <c r="S10">
-        <v>7500</v>
+        <v>10700</v>
       </c>
       <c r="T10">
-        <v>1939.8119999999999</v>
+        <v>1252.3440000000001</v>
       </c>
       <c r="U10">
-        <v>171.44399999999999</v>
+        <v>130.61500000000001</v>
       </c>
       <c r="V10">
-        <v>39.524000000000001</v>
+        <v>52.237000000000002</v>
       </c>
       <c r="W10">
-        <v>-8.0280000000000005</v>
+        <v>-8.843</v>
       </c>
       <c r="X10">
-        <v>12.111000000000001</v>
+        <v>185.41200000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-3.242</v>
       </c>
       <c r="AA10">
-        <v>-15.856</v>
+        <v>-2.6280000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37710</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>32.216000000000001</v>
+        <v>2.3620000000000001</v>
       </c>
       <c r="D11">
-        <v>502.94299999999998</v>
+        <v>358.44900000000001</v>
       </c>
       <c r="E11">
-        <v>410.78199999999998</v>
+        <v>272.07</v>
       </c>
       <c r="F11">
-        <v>224.54499999999999</v>
+        <v>139.16900000000001</v>
       </c>
       <c r="G11">
-        <v>896.69200000000001</v>
+        <v>928.31500000000005</v>
       </c>
       <c r="H11">
-        <v>3808.1460000000002</v>
+        <v>2752.7339999999999</v>
       </c>
       <c r="I11">
-        <v>172.166</v>
+        <v>132.68299999999999</v>
       </c>
       <c r="J11">
-        <v>983.245</v>
+        <v>599.27200000000005</v>
       </c>
       <c r="K11">
-        <v>5.4009999999999998</v>
+        <v>161.066</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-135</v>
+        <v>-47.509</v>
       </c>
       <c r="N11">
-        <v>573.35400000000004</v>
+        <v>627.49300000000005</v>
       </c>
       <c r="O11">
-        <v>1973.723</v>
+        <v>1494.175</v>
       </c>
       <c r="P11">
-        <v>1026.646</v>
+        <v>760.33799999999997</v>
       </c>
       <c r="Q11">
-        <v>-45.573</v>
+        <v>-0.83799999999999997</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37710</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1834.423</v>
+        <v>1258.559</v>
       </c>
       <c r="U11">
-        <v>125.871</v>
+        <v>129.77699999999999</v>
       </c>
       <c r="V11">
-        <v>10.930999999999999</v>
+        <v>24.068999999999999</v>
       </c>
       <c r="W11">
-        <v>-8.06</v>
+        <v>-8.8330000000000002</v>
       </c>
       <c r="X11">
-        <v>-42.594000000000001</v>
+        <v>-57.487000000000002</v>
       </c>
       <c r="Y11">
-        <v>36.1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>32.216000000000001</v>
+        <v>2.3620000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37801</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>27.925000000000001</v>
+        <v>8.3979999999999997</v>
       </c>
       <c r="D12">
-        <v>540.673</v>
+        <v>376.25200000000001</v>
       </c>
       <c r="E12">
-        <v>434.798</v>
+        <v>269.82</v>
       </c>
       <c r="F12">
-        <v>241.762</v>
+        <v>152.95599999999999</v>
       </c>
       <c r="G12">
-        <v>906.505</v>
+        <v>936.08600000000001</v>
       </c>
       <c r="H12">
-        <v>3811.2840000000001</v>
+        <v>2775.143</v>
       </c>
       <c r="I12">
-        <v>170.12200000000001</v>
+        <v>131.018</v>
       </c>
       <c r="J12">
-        <v>963.25800000000004</v>
+        <v>584.48299999999995</v>
       </c>
       <c r="K12">
-        <v>1.4999999999999999E-2</v>
+        <v>4.7910000000000004</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>563.28099999999995</v>
+        <v>621.27599999999995</v>
       </c>
       <c r="O12">
-        <v>1951.432</v>
+        <v>1481.664</v>
       </c>
       <c r="P12">
-        <v>1004.073</v>
+        <v>746.08699999999999</v>
       </c>
       <c r="Q12">
-        <v>-13.401</v>
+        <v>14.846</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37801</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1859.8520000000001</v>
+        <v>1293.479</v>
       </c>
       <c r="U12">
-        <v>112.47</v>
+        <v>144.62299999999999</v>
       </c>
       <c r="V12">
-        <v>27.861999999999998</v>
+        <v>36.841999999999999</v>
       </c>
       <c r="W12">
-        <v>-7.8319999999999999</v>
+        <v>-8.827</v>
       </c>
       <c r="X12">
-        <v>-28.375</v>
+        <v>-24.815999999999999</v>
       </c>
       <c r="Y12">
-        <v>38.6</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>27.925000000000001</v>
+        <v>8.3979999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41546</v>
+        <v>37892</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>40.198</v>
+        <v>14.269</v>
       </c>
       <c r="D13">
-        <v>522.1</v>
+        <v>366.185</v>
       </c>
       <c r="E13">
-        <v>428.53100000000001</v>
+        <v>264.26100000000002</v>
       </c>
       <c r="F13">
-        <v>233.46799999999999</v>
+        <v>152.94200000000001</v>
       </c>
       <c r="G13">
-        <v>948.42399999999998</v>
+        <v>772.09100000000001</v>
       </c>
       <c r="H13">
-        <v>3851.5259999999998</v>
+        <v>2589.3240000000001</v>
       </c>
       <c r="I13">
-        <v>162.523</v>
+        <v>133.703</v>
       </c>
       <c r="J13">
-        <v>895.39200000000005</v>
+        <v>564.745</v>
       </c>
       <c r="K13">
-        <v>2.1999999999999999E-2</v>
+        <v>4.5910000000000002</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>589.39099999999996</v>
+        <v>447.55700000000002</v>
       </c>
       <c r="O13">
-        <v>1931.9549999999999</v>
+        <v>1290.692</v>
       </c>
       <c r="P13">
-        <v>935.91399999999999</v>
+        <v>569.33600000000001</v>
       </c>
       <c r="Q13">
-        <v>19.832999999999998</v>
+        <v>-3.3069999999999999</v>
       </c>
       <c r="R13">
-        <v>41546</v>
+        <v>37892</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1919.5709999999999</v>
+        <v>1298.6320000000001</v>
       </c>
       <c r="U13">
-        <v>132.303</v>
+        <v>141.316</v>
       </c>
       <c r="V13">
-        <v>48.094999999999999</v>
+        <v>28.661000000000001</v>
       </c>
       <c r="W13">
-        <v>-7.8410000000000002</v>
+        <v>-8.8710000000000004</v>
       </c>
       <c r="X13">
-        <v>-67.765000000000001</v>
+        <v>-185.23599999999999</v>
       </c>
       <c r="Y13">
-        <v>37.9</v>
+        <v>0</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>40.198</v>
+        <v>14.269</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41637</v>
+        <v>37983</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>66.873000000000005</v>
+        <v>27.93</v>
       </c>
       <c r="D14">
-        <v>591.87</v>
+        <v>431.87299999999999</v>
       </c>
       <c r="E14">
-        <v>466.74900000000002</v>
+        <v>288.02699999999999</v>
       </c>
       <c r="F14">
-        <v>276.57</v>
+        <v>185.47499999999999</v>
       </c>
       <c r="G14">
-        <v>1044.838</v>
+        <v>766.3</v>
       </c>
       <c r="H14">
-        <v>3946.712</v>
+        <v>2607.7269999999999</v>
       </c>
       <c r="I14">
-        <v>166.881</v>
+        <v>154.26</v>
       </c>
       <c r="J14">
-        <v>894.404</v>
+        <v>544.30700000000002</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>5.1669999999999998</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>602.79600000000005</v>
+        <v>452.02300000000002</v>
       </c>
       <c r="O14">
-        <v>1952.2249999999999</v>
+        <v>1258.6769999999999</v>
       </c>
       <c r="P14">
-        <v>934.72799999999995</v>
+        <v>549.47400000000005</v>
       </c>
       <c r="Q14">
-        <v>40.939</v>
+        <v>50.183</v>
       </c>
       <c r="R14">
-        <v>41637</v>
+        <v>37983</v>
       </c>
       <c r="S14">
-        <v>7600</v>
+        <v>10000</v>
       </c>
       <c r="T14">
-        <v>1994.4870000000001</v>
+        <v>1349.05</v>
       </c>
       <c r="U14">
-        <v>173.24199999999999</v>
+        <v>191.499</v>
       </c>
       <c r="V14">
-        <v>71.703000000000003</v>
+        <v>77.903000000000006</v>
       </c>
       <c r="W14">
-        <v>-7.867</v>
+        <v>-8.8780000000000001</v>
       </c>
       <c r="X14">
-        <v>-15.426</v>
+        <v>-30.812000000000001</v>
       </c>
       <c r="Y14">
-        <v>37.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>66.873000000000005</v>
+        <v>27.93</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41728</v>
+        <v>38074</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>34.223999999999997</v>
+        <v>13.271000000000001</v>
       </c>
       <c r="D15">
-        <v>530.61</v>
+        <v>392.60700000000003</v>
       </c>
       <c r="E15">
-        <v>442.976</v>
+        <v>282.69499999999999</v>
       </c>
       <c r="F15">
-        <v>235.71299999999999</v>
+        <v>152.62700000000001</v>
       </c>
       <c r="G15">
-        <v>1097.5820000000001</v>
+        <v>744.52</v>
       </c>
       <c r="H15">
-        <v>3971.078</v>
+        <v>2561.1709999999998</v>
       </c>
       <c r="I15">
-        <v>168.03899999999999</v>
+        <v>143.05699999999999</v>
       </c>
       <c r="J15">
-        <v>889.49699999999996</v>
+        <v>499.36900000000003</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>4.9790000000000001</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-95.251999999999995</v>
+        <v>-45.463999999999999</v>
       </c>
       <c r="N15">
-        <v>605.46199999999999</v>
+        <v>445.459</v>
       </c>
       <c r="O15">
-        <v>1941.6420000000001</v>
+        <v>1206.4949999999999</v>
       </c>
       <c r="P15">
-        <v>929.52300000000002</v>
+        <v>504.34800000000001</v>
       </c>
       <c r="Q15">
-        <v>50.871000000000002</v>
+        <v>-26.027999999999999</v>
       </c>
       <c r="R15">
-        <v>41728</v>
+        <v>38074</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2029.4359999999999</v>
+        <v>1354.6759999999999</v>
       </c>
       <c r="U15">
-        <v>224.113</v>
+        <v>165.471</v>
       </c>
       <c r="V15">
-        <v>67.710999999999999</v>
+        <v>26.556000000000001</v>
       </c>
       <c r="W15">
-        <v>-7.8869999999999996</v>
+        <v>-8.9039999999999999</v>
       </c>
       <c r="X15">
-        <v>-11.548</v>
+        <v>-50.71</v>
       </c>
       <c r="Y15">
-        <v>37.4</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>34.223999999999997</v>
+        <v>13.271000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41819</v>
+        <v>38165</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>50.49</v>
+        <v>20.835000000000001</v>
       </c>
       <c r="D16">
-        <v>556.16999999999996</v>
+        <v>294.18799999999999</v>
       </c>
       <c r="E16">
-        <v>443.72199999999998</v>
+        <v>273.92099999999999</v>
       </c>
       <c r="F16">
-        <v>247.98400000000001</v>
+        <v>135.63399999999999</v>
       </c>
       <c r="G16">
-        <v>1080.6489999999999</v>
+        <v>759.98599999999999</v>
       </c>
       <c r="H16">
-        <v>3936.5680000000002</v>
+        <v>2553.8429999999998</v>
       </c>
       <c r="I16">
-        <v>155.41499999999999</v>
+        <v>129.92500000000001</v>
       </c>
       <c r="J16">
-        <v>855.58199999999999</v>
+        <v>484.43099999999998</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>4.9450000000000003</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>578.59900000000005</v>
+        <v>441.834</v>
       </c>
       <c r="O16">
-        <v>1880.577</v>
+        <v>1186.653</v>
       </c>
       <c r="P16">
-        <v>895.33299999999997</v>
+        <v>489.37599999999998</v>
       </c>
       <c r="Q16">
-        <v>-18.855</v>
+        <v>31.257000000000001</v>
       </c>
       <c r="R16">
-        <v>41819</v>
+        <v>38165</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2055.991</v>
+        <v>1367.19</v>
       </c>
       <c r="U16">
-        <v>205.25800000000001</v>
+        <v>196.72800000000001</v>
       </c>
       <c r="V16">
-        <v>54.395000000000003</v>
+        <v>56.527000000000001</v>
       </c>
       <c r="W16">
-        <v>-7.9219999999999997</v>
+        <v>-8.9420000000000002</v>
       </c>
       <c r="X16">
-        <v>-65.135000000000005</v>
+        <v>-22.231000000000002</v>
       </c>
       <c r="Y16">
-        <v>38.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>50.49</v>
+        <v>20.835000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41910</v>
+        <v>38256</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>42.277000000000001</v>
+        <v>24.013999999999999</v>
       </c>
       <c r="D17">
-        <v>542.04899999999998</v>
+        <v>341.601</v>
       </c>
       <c r="E17">
-        <v>427.00799999999998</v>
+        <v>272.45999999999998</v>
       </c>
       <c r="F17">
-        <v>243.32900000000001</v>
+        <v>143.03399999999999</v>
       </c>
       <c r="G17">
-        <v>1074.347</v>
+        <v>777.14200000000005</v>
       </c>
       <c r="H17">
-        <v>3886.47</v>
+        <v>2559.3139999999999</v>
       </c>
       <c r="I17">
-        <v>160.506</v>
+        <v>131.227</v>
       </c>
       <c r="J17">
-        <v>820.07799999999997</v>
+        <v>469.49299999999999</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>4.9950000000000001</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>567.43299999999999</v>
+        <v>441.92099999999999</v>
       </c>
       <c r="O17">
-        <v>1823.7159999999999</v>
+        <v>1169.0250000000001</v>
       </c>
       <c r="P17">
-        <v>859.73500000000001</v>
+        <v>474.488</v>
       </c>
       <c r="Q17">
-        <v>-1.575</v>
+        <v>23.312999999999999</v>
       </c>
       <c r="R17">
-        <v>41910</v>
+        <v>38256</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>2062.7539999999999</v>
+        <v>1390.289</v>
       </c>
       <c r="U17">
-        <v>203.68299999999999</v>
+        <v>220.041</v>
       </c>
       <c r="V17">
-        <v>62.927</v>
+        <v>46.661999999999999</v>
       </c>
       <c r="W17">
-        <v>-7.9039999999999999</v>
+        <v>-8.968</v>
       </c>
       <c r="X17">
-        <v>-47.012</v>
+        <v>-23.061</v>
       </c>
       <c r="Y17">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>42.277000000000001</v>
+        <v>24.013999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42001</v>
+        <v>38354</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>30.786999999999999</v>
+        <v>37.923000000000002</v>
       </c>
       <c r="D18">
-        <v>608.39</v>
+        <v>400.69299999999998</v>
       </c>
       <c r="E18">
-        <v>470.56299999999999</v>
+        <v>256.74099999999999</v>
       </c>
       <c r="F18">
-        <v>279.97699999999998</v>
+        <v>151.46799999999999</v>
       </c>
       <c r="G18">
-        <v>1068.5509999999999</v>
+        <v>747.63</v>
       </c>
       <c r="H18">
-        <v>4127.576</v>
+        <v>2575.5070000000001</v>
       </c>
       <c r="I18">
-        <v>173.953</v>
+        <v>127.19499999999999</v>
       </c>
       <c r="J18">
-        <v>1007.193</v>
+        <v>364.87400000000002</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>9.7140000000000004</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>597.30999999999995</v>
+        <v>445.96699999999998</v>
       </c>
       <c r="O18">
-        <v>2085.4740000000002</v>
+        <v>1115.422</v>
       </c>
       <c r="P18">
-        <v>1046.4680000000001</v>
+        <v>374.58800000000002</v>
       </c>
       <c r="Q18">
-        <v>-28.861999999999998</v>
+        <v>-22.527999999999999</v>
       </c>
       <c r="R18">
-        <v>42001</v>
+        <v>38354</v>
       </c>
       <c r="S18">
-        <v>7700</v>
+        <v>10000</v>
       </c>
       <c r="T18">
-        <v>2042.1020000000001</v>
+        <v>1460.085</v>
       </c>
       <c r="U18">
-        <v>174.821</v>
+        <v>197.51300000000001</v>
       </c>
       <c r="V18">
-        <v>96.563999999999993</v>
+        <v>71.012</v>
       </c>
       <c r="W18">
-        <v>-7.907</v>
+        <v>-8.9670000000000005</v>
       </c>
       <c r="X18">
-        <v>154.626</v>
+        <v>-99.936000000000007</v>
       </c>
       <c r="Y18">
-        <v>38.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>30.786999999999999</v>
+        <v>37.923000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42092</v>
+        <v>38445</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>40.334000000000003</v>
+        <v>19.829000000000001</v>
       </c>
       <c r="D19">
-        <v>526.90099999999995</v>
+        <v>358.17399999999998</v>
       </c>
       <c r="E19">
-        <v>415.37799999999999</v>
+        <v>286.70999999999998</v>
       </c>
       <c r="F19">
-        <v>240.244</v>
+        <v>148.28899999999999</v>
       </c>
       <c r="G19">
-        <v>1022.535</v>
+        <v>743.23099999999999</v>
       </c>
       <c r="H19">
-        <v>4028.2710000000002</v>
+        <v>2566.5100000000002</v>
       </c>
       <c r="I19">
-        <v>157.471</v>
+        <v>146.51400000000001</v>
       </c>
       <c r="J19">
-        <v>976.76599999999996</v>
+        <v>364.76100000000002</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-98.263000000000005</v>
+        <v>-0.41799999999999998</v>
       </c>
       <c r="N19">
-        <v>550.58100000000002</v>
+        <v>433.73200000000003</v>
       </c>
       <c r="O19">
-        <v>1968.386</v>
+        <v>1105.82</v>
       </c>
       <c r="P19">
-        <v>1015.749</v>
+        <v>374.42399999999998</v>
       </c>
       <c r="Q19">
-        <v>-5.8970000000000002</v>
+        <v>-13.3</v>
       </c>
       <c r="R19">
-        <v>42092</v>
+        <v>38445</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2059.8850000000002</v>
+        <v>1460.69</v>
       </c>
       <c r="U19">
-        <v>168.92400000000001</v>
+        <v>184.21299999999999</v>
       </c>
       <c r="V19">
-        <v>37.662999999999997</v>
+        <v>13.494999999999999</v>
       </c>
       <c r="W19">
-        <v>-7.8760000000000003</v>
+        <v>-9.0370000000000008</v>
       </c>
       <c r="X19">
-        <v>-24.69</v>
+        <v>-6.8120000000000003</v>
       </c>
       <c r="Y19">
-        <v>37.9</v>
+        <v>0</v>
       </c>
       <c r="Z19">
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>40.334000000000003</v>
+        <v>19.829000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42183</v>
+        <v>38536</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>48.973999999999997</v>
+        <v>28.898</v>
       </c>
       <c r="D20">
-        <v>563.90599999999995</v>
+        <v>368.017</v>
       </c>
       <c r="E20">
-        <v>425.69799999999998</v>
+        <v>269.21600000000001</v>
       </c>
       <c r="F20">
-        <v>254.11199999999999</v>
+        <v>151.12299999999999</v>
       </c>
       <c r="G20">
-        <v>1070.328</v>
+        <v>696.04300000000001</v>
       </c>
       <c r="H20">
-        <v>4082.7559999999999</v>
+        <v>2492.4259999999999</v>
       </c>
       <c r="I20">
-        <v>170.67699999999999</v>
+        <v>145.37200000000001</v>
       </c>
       <c r="J20">
-        <v>948.85199999999998</v>
+        <v>268.334</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>574.34400000000005</v>
+        <v>470.43799999999999</v>
       </c>
       <c r="O20">
-        <v>1961.8520000000001</v>
+        <v>1034.7249999999999</v>
       </c>
       <c r="P20">
-        <v>988.42600000000004</v>
+        <v>274.221</v>
       </c>
       <c r="Q20">
-        <v>23.245999999999999</v>
+        <v>-25.48</v>
       </c>
       <c r="R20">
-        <v>42183</v>
+        <v>38536</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2120.904</v>
+        <v>1457.701</v>
       </c>
       <c r="U20">
-        <v>192.17</v>
+        <v>158.733</v>
       </c>
       <c r="V20">
-        <v>63.470999999999997</v>
+        <v>86.814999999999998</v>
       </c>
       <c r="W20">
-        <v>-7.923</v>
+        <v>-9.0730000000000004</v>
       </c>
       <c r="X20">
-        <v>-23.722999999999999</v>
+        <v>-112.39700000000001</v>
       </c>
       <c r="Y20">
-        <v>37.6</v>
+        <v>0</v>
       </c>
       <c r="Z20">
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>48.973999999999997</v>
+        <v>28.898</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42281</v>
+        <v>38627</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>54.863</v>
+        <v>31.832999999999998</v>
       </c>
       <c r="D21">
-        <v>563.43600000000004</v>
+        <v>359.98200000000003</v>
       </c>
       <c r="E21">
-        <v>414.19299999999998</v>
+        <v>247.59899999999999</v>
       </c>
       <c r="F21">
-        <v>255.40299999999999</v>
+        <v>150.28200000000001</v>
       </c>
       <c r="G21">
-        <v>1073.837</v>
+        <v>709.30100000000004</v>
       </c>
       <c r="H21">
-        <v>4031.6669999999999</v>
+        <v>2493.6979999999999</v>
       </c>
       <c r="I21">
-        <v>149.684</v>
+        <v>127.92</v>
       </c>
       <c r="J21">
-        <v>989.86900000000003</v>
+        <v>268.39</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>554.27599999999995</v>
+        <v>444.04</v>
       </c>
       <c r="O21">
-        <v>1977.3430000000001</v>
+        <v>1007.593</v>
       </c>
       <c r="P21">
-        <v>1028.376</v>
+        <v>274.24</v>
       </c>
       <c r="Q21">
-        <v>2.8959999999999999</v>
+        <v>7.3239999999999998</v>
       </c>
       <c r="R21">
-        <v>42281</v>
+        <v>38627</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>2054.3240000000001</v>
+        <v>1486.105</v>
       </c>
       <c r="U21">
-        <v>195.066</v>
+        <v>166.05699999999999</v>
       </c>
       <c r="V21">
-        <v>60.725000000000001</v>
+        <v>23.207999999999998</v>
       </c>
       <c r="W21">
-        <v>-7.9379999999999997</v>
+        <v>-9.1</v>
       </c>
       <c r="X21">
-        <v>-44.017000000000003</v>
+        <v>-3.8860000000000001</v>
       </c>
       <c r="Y21">
-        <v>37.4</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>6.9560000000000004</v>
       </c>
       <c r="AA21">
-        <v>54.863</v>
+        <v>31.832999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42372</v>
+        <v>38718</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>68.254000000000005</v>
+        <v>187.548</v>
       </c>
       <c r="D22">
-        <v>450.58</v>
+        <v>387.65800000000002</v>
       </c>
       <c r="E22">
-        <v>415.06400000000002</v>
+        <v>250.84399999999999</v>
       </c>
       <c r="F22">
-        <v>221.74199999999999</v>
+        <v>164.84200000000001</v>
       </c>
       <c r="G22">
-        <v>1033.1610000000001</v>
+        <v>998.88900000000001</v>
       </c>
       <c r="H22">
-        <v>4166.2950000000001</v>
+        <v>2693.4609999999998</v>
       </c>
       <c r="I22">
-        <v>140.97999999999999</v>
+        <v>146.971</v>
       </c>
       <c r="J22">
-        <v>974.66200000000003</v>
+        <v>243.28200000000001</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.131</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>561.48500000000001</v>
+        <v>494.53899999999999</v>
       </c>
       <c r="O22">
-        <v>2055.8539999999998</v>
+        <v>1042.9480000000001</v>
       </c>
       <c r="P22">
-        <v>1012.885</v>
+        <v>244.41300000000001</v>
       </c>
       <c r="Q22">
-        <v>42.866</v>
+        <v>336.20699999999999</v>
       </c>
       <c r="R22">
-        <v>42372</v>
+        <v>38718</v>
       </c>
       <c r="S22">
         <v>8000</v>
       </c>
       <c r="T22">
-        <v>2110.4409999999998</v>
+        <v>1650.5129999999999</v>
       </c>
       <c r="U22">
-        <v>237.93199999999999</v>
+        <v>502.26400000000001</v>
       </c>
       <c r="V22">
-        <v>125.239</v>
+        <v>84.575000000000003</v>
       </c>
       <c r="W22">
-        <v>-7.8339999999999996</v>
+        <v>-9.0860000000000003</v>
       </c>
       <c r="X22">
-        <v>-14.709</v>
+        <v>-94.756</v>
       </c>
       <c r="Y22">
-        <v>37.1</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>359.62200000000001</v>
       </c>
       <c r="AA22">
-        <v>68.254000000000005</v>
+        <v>187.548</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42463</v>
+        <v>38809</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>47.466000000000001</v>
+        <v>23.617000000000001</v>
       </c>
       <c r="D23">
-        <v>498.01600000000002</v>
+        <v>355.45400000000001</v>
       </c>
       <c r="E23">
-        <v>436.755</v>
+        <v>235.26900000000001</v>
       </c>
       <c r="F23">
-        <v>235.21700000000001</v>
+        <v>141.68700000000001</v>
       </c>
       <c r="G23">
-        <v>1049.82</v>
+        <v>803.81600000000003</v>
       </c>
       <c r="H23">
-        <v>4210.7209999999995</v>
+        <v>2496.098</v>
       </c>
       <c r="I23">
-        <v>159.47999999999999</v>
+        <v>135.834</v>
       </c>
       <c r="J23">
-        <v>1083.03</v>
+        <v>206.624</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-75.275000000000006</v>
+        <v>-39.838000000000001</v>
       </c>
       <c r="N23">
-        <v>554.54700000000003</v>
+        <v>402.33300000000003</v>
       </c>
       <c r="O23">
-        <v>2161.241</v>
+        <v>919.84299999999996</v>
       </c>
       <c r="P23">
-        <v>1120.9649999999999</v>
+        <v>207.714</v>
       </c>
       <c r="Q23">
-        <v>-27.201000000000001</v>
+        <v>-180.423</v>
       </c>
       <c r="R23">
-        <v>42463</v>
+        <v>38809</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2049.48</v>
+        <v>1576.2550000000001</v>
       </c>
       <c r="U23">
-        <v>210.73099999999999</v>
+        <v>321.84100000000001</v>
       </c>
       <c r="V23">
-        <v>32.04</v>
+        <v>-34.738999999999997</v>
       </c>
       <c r="W23">
-        <v>-7.843</v>
+        <v>-9.1159999999999997</v>
       </c>
       <c r="X23">
-        <v>-47.695</v>
+        <v>-147.47399999999999</v>
       </c>
       <c r="Y23">
-        <v>36.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>47.466000000000001</v>
+        <v>23.617000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42554</v>
+        <v>38900</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>63.856999999999999</v>
+        <v>24.484999999999999</v>
       </c>
       <c r="D24">
-        <v>536.24199999999996</v>
+        <v>377.00099999999998</v>
       </c>
       <c r="E24">
-        <v>435.822</v>
+        <v>233.44900000000001</v>
       </c>
       <c r="F24">
-        <v>253.85400000000001</v>
+        <v>151.589</v>
       </c>
       <c r="G24">
-        <v>1078.9469999999999</v>
+        <v>808.423</v>
       </c>
       <c r="H24">
-        <v>4193.9960000000001</v>
+        <v>2535.5619999999999</v>
       </c>
       <c r="I24">
-        <v>156.44200000000001</v>
+        <v>130.01400000000001</v>
       </c>
       <c r="J24">
-        <v>1020.434</v>
+        <v>199.18700000000001</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>561.18100000000004</v>
+        <v>418.03399999999999</v>
       </c>
       <c r="O24">
-        <v>2105.7930000000001</v>
+        <v>934.58500000000004</v>
       </c>
       <c r="P24">
-        <v>1058.0809999999999</v>
+        <v>200.27699999999999</v>
       </c>
       <c r="Q24">
-        <v>37.351999999999997</v>
+        <v>1.9139999999999999</v>
       </c>
       <c r="R24">
-        <v>42554</v>
+        <v>38900</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2088.203</v>
+        <v>1600.9770000000001</v>
       </c>
       <c r="U24">
-        <v>248.083</v>
+        <v>323.755</v>
       </c>
       <c r="V24">
-        <v>96.238</v>
+        <v>50.286999999999999</v>
       </c>
       <c r="W24">
-        <v>-7.6310000000000002</v>
+        <v>-8.8580000000000005</v>
       </c>
       <c r="X24">
-        <v>-64.744</v>
+        <v>-24.026</v>
       </c>
       <c r="Y24">
-        <v>36.5</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>63.856999999999999</v>
+        <v>24.484999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42645</v>
+        <v>38991</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>58.127000000000002</v>
+        <v>29.753</v>
       </c>
       <c r="D25">
-        <v>514.48900000000003</v>
+        <v>386.91699999999997</v>
       </c>
       <c r="E25">
-        <v>443.27499999999998</v>
+        <v>253.18899999999999</v>
       </c>
       <c r="F25">
-        <v>248.55</v>
+        <v>155.941</v>
       </c>
       <c r="G25">
-        <v>1153.566</v>
+        <v>716.22199999999998</v>
       </c>
       <c r="H25">
-        <v>4304.5559999999996</v>
+        <v>2501.2689999999998</v>
       </c>
       <c r="I25">
-        <v>162.321</v>
+        <v>142.64400000000001</v>
       </c>
       <c r="J25">
-        <v>1095.6849999999999</v>
+        <v>201.13300000000001</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.1419999999999999</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>547.99099999999999</v>
+        <v>432.27100000000002</v>
       </c>
       <c r="O25">
-        <v>2169.134</v>
+        <v>944.62199999999996</v>
       </c>
       <c r="P25">
-        <v>1133.085</v>
+        <v>202.27500000000001</v>
       </c>
       <c r="Q25">
-        <v>63.58</v>
+        <v>-116.681</v>
       </c>
       <c r="R25">
-        <v>42645</v>
+        <v>38991</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>2135.422</v>
+        <v>1556.6469999999999</v>
       </c>
       <c r="U25">
-        <v>311.66300000000001</v>
+        <v>207.07400000000001</v>
       </c>
       <c r="V25">
-        <v>73.614000000000004</v>
+        <v>26.805</v>
       </c>
       <c r="W25">
-        <v>-7.657</v>
+        <v>-8.8770000000000007</v>
       </c>
       <c r="X25">
-        <v>59.796999999999997</v>
+        <v>-82.206999999999994</v>
       </c>
       <c r="Y25">
-        <v>36.24</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>24.039000000000001</v>
       </c>
       <c r="AA25">
-        <v>58.127000000000002</v>
+        <v>29.753</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42736</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>64.849000000000004</v>
+        <v>41.728000000000002</v>
       </c>
       <c r="D26">
-        <v>566.77</v>
+        <v>426.98599999999999</v>
       </c>
       <c r="E26">
-        <v>425.58800000000002</v>
+        <v>268.459</v>
       </c>
       <c r="F26">
-        <v>276.16300000000001</v>
+        <v>178.85400000000001</v>
       </c>
       <c r="G26">
-        <v>1189.931</v>
+        <v>744.76599999999996</v>
       </c>
       <c r="H26">
-        <v>4276.683</v>
+        <v>2510.3220000000001</v>
       </c>
       <c r="I26">
-        <v>168.03299999999999</v>
+        <v>152.83600000000001</v>
       </c>
       <c r="J26">
-        <v>1009.354</v>
+        <v>151.78100000000001</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1.153</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>603.35500000000002</v>
+        <v>476.53300000000002</v>
       </c>
       <c r="O26">
-        <v>2123.1129999999998</v>
+        <v>932.59199999999998</v>
       </c>
       <c r="P26">
-        <v>1046.4259999999999</v>
+        <v>152.934</v>
       </c>
       <c r="Q26">
-        <v>47.601999999999997</v>
+        <v>-16.015000000000001</v>
       </c>
       <c r="R26">
-        <v>42736</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="T26">
-        <v>2153.5700000000002</v>
+        <v>1577.73</v>
       </c>
       <c r="U26">
-        <v>359.26499999999999</v>
+        <v>191.059</v>
       </c>
       <c r="V26">
-        <v>148.72300000000001</v>
+        <v>85.087000000000003</v>
       </c>
       <c r="W26">
-        <v>-7.6680000000000001</v>
+        <v>-8.6039999999999992</v>
       </c>
       <c r="X26">
-        <v>-62.369</v>
+        <v>-59.798999999999999</v>
       </c>
       <c r="Y26">
-        <v>35.9</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-24.039000000000001</v>
       </c>
       <c r="AA26">
-        <v>64.849000000000004</v>
+        <v>41.728000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42827</v>
+        <v>39173</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>38.603000000000002</v>
+        <v>14.692</v>
       </c>
       <c r="D27">
-        <v>514.11500000000001</v>
+        <v>402.9</v>
       </c>
       <c r="E27">
-        <v>411.084</v>
+        <v>267.62799999999999</v>
       </c>
       <c r="F27">
-        <v>241.93199999999999</v>
+        <v>160.06700000000001</v>
       </c>
       <c r="G27">
-        <v>1116.579</v>
+        <v>674.64200000000005</v>
       </c>
       <c r="H27">
-        <v>4340.5010000000002</v>
+        <v>2497.9699999999998</v>
       </c>
       <c r="I27">
-        <v>158.11799999999999</v>
+        <v>147.708</v>
       </c>
       <c r="J27">
-        <v>1017.077</v>
+        <v>178.119</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1.627</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-146.23699999999999</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="N27">
-        <v>600.60799999999995</v>
+        <v>421.27199999999999</v>
       </c>
       <c r="O27">
-        <v>2131.5140000000001</v>
+        <v>956.14599999999996</v>
       </c>
       <c r="P27">
-        <v>1054.864</v>
+        <v>179.74600000000001</v>
       </c>
       <c r="Q27">
-        <v>-85.938999999999993</v>
+        <v>-71.497</v>
       </c>
       <c r="R27">
-        <v>42827</v>
+        <v>39173</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2208.9870000000001</v>
+        <v>1541.8240000000001</v>
       </c>
       <c r="U27">
-        <v>288.32900000000001</v>
+        <v>119.562</v>
       </c>
       <c r="V27">
-        <v>53.735999999999997</v>
+        <v>17.251999999999999</v>
       </c>
       <c r="W27">
-        <v>-7.673</v>
+        <v>-8.6300000000000008</v>
       </c>
       <c r="X27">
-        <v>-16.181000000000001</v>
+        <v>-36.347999999999999</v>
       </c>
       <c r="Y27">
-        <v>35.6</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="AA27">
-        <v>38.603000000000002</v>
+        <v>14.692</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42918</v>
+        <v>39264</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>204.06899999999999</v>
+        <v>33.686999999999998</v>
       </c>
       <c r="D28">
-        <v>546.96199999999999</v>
+        <v>437.29</v>
       </c>
       <c r="E28">
-        <v>440.41199999999998</v>
+        <v>271.47000000000003</v>
       </c>
       <c r="F28">
-        <v>259.702</v>
+        <v>174.678</v>
       </c>
       <c r="G28">
-        <v>1433.826</v>
+        <v>712.19299999999998</v>
       </c>
       <c r="H28">
-        <v>4605.1040000000003</v>
+        <v>2532.4690000000001</v>
       </c>
       <c r="I28">
-        <v>153.75399999999999</v>
+        <v>151.93</v>
       </c>
       <c r="J28">
-        <v>1054.095</v>
+        <v>234.50399999999999</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>589.38800000000003</v>
+        <v>449.75599999999997</v>
       </c>
       <c r="O28">
-        <v>2166.4679999999998</v>
+        <v>1036.163</v>
       </c>
       <c r="P28">
-        <v>1091.6199999999999</v>
+        <v>235.40199999999999</v>
       </c>
       <c r="Q28">
-        <v>325.92899999999997</v>
+        <v>30.478000000000002</v>
       </c>
       <c r="R28">
-        <v>42918</v>
+        <v>39264</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>2438.636</v>
+        <v>1496.306</v>
       </c>
       <c r="U28">
-        <v>616.30799999999999</v>
+        <v>150.04</v>
       </c>
       <c r="V28">
-        <v>48.116999999999997</v>
+        <v>69.734999999999999</v>
       </c>
       <c r="W28">
-        <v>-7.69</v>
+        <v>-8.4930000000000003</v>
       </c>
       <c r="X28">
-        <v>-2.5859999999999999</v>
+        <v>-34.72</v>
       </c>
       <c r="Y28">
-        <v>35.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AA28">
-        <v>204.06899999999999</v>
+        <v>33.686999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43009</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>91.078000000000003</v>
+        <v>30.745000000000001</v>
       </c>
       <c r="D29">
-        <v>554.27499999999998</v>
+        <v>435.66800000000001</v>
       </c>
       <c r="E29">
-        <v>440.649</v>
+        <v>287.08100000000002</v>
       </c>
       <c r="F29">
-        <v>268.96699999999998</v>
+        <v>178.90100000000001</v>
       </c>
       <c r="G29">
-        <v>1545.66</v>
+        <v>755.00900000000001</v>
       </c>
       <c r="H29">
-        <v>4738.9549999999999</v>
+        <v>2591.3580000000002</v>
       </c>
       <c r="I29">
-        <v>163.73500000000001</v>
+        <v>158.636</v>
       </c>
       <c r="J29">
-        <v>1074.3689999999999</v>
+        <v>246.095</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>597.51199999999994</v>
+        <v>445.29199999999997</v>
       </c>
       <c r="O29">
-        <v>2202.9259999999999</v>
+        <v>1055.1210000000001</v>
       </c>
       <c r="P29">
-        <v>1110.5630000000001</v>
+        <v>247.03</v>
       </c>
       <c r="Q29">
-        <v>93.165999999999997</v>
+        <v>10.861000000000001</v>
       </c>
       <c r="R29">
-        <v>43009</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>2536.029</v>
+        <v>1536.2370000000001</v>
       </c>
       <c r="U29">
-        <v>709.48800000000006</v>
+        <v>160.90100000000001</v>
       </c>
       <c r="V29">
-        <v>58.503999999999998</v>
+        <v>23.372</v>
       </c>
       <c r="W29">
-        <v>-7.7140000000000004</v>
+        <v>-8.2870000000000008</v>
       </c>
       <c r="X29">
-        <v>-15.683</v>
+        <v>-6.4080000000000004</v>
       </c>
       <c r="Y29">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="AA29">
-        <v>91.078000000000003</v>
+        <v>30.745000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39446</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-41.116999999999997</v>
+        <v>52.561999999999998</v>
       </c>
       <c r="D30">
-        <v>641.63</v>
+        <v>426.51600000000002</v>
       </c>
       <c r="E30">
-        <v>552.30399999999997</v>
+        <v>314.42500000000001</v>
       </c>
       <c r="F30">
-        <v>309.37700000000001</v>
+        <v>194.833</v>
       </c>
       <c r="G30">
-        <v>1199.9549999999999</v>
+        <v>842.94799999999998</v>
       </c>
       <c r="H30">
-        <v>6091.4629999999997</v>
+        <v>2949.337</v>
       </c>
       <c r="I30">
-        <v>222.09299999999999</v>
+        <v>164.80600000000001</v>
       </c>
       <c r="J30">
-        <v>1754.3030000000001</v>
+        <v>516.07799999999997</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>950.90200000000004</v>
+        <v>547.59799999999996</v>
       </c>
       <c r="O30">
-        <v>3588.2750000000001</v>
+        <v>1374.06</v>
       </c>
       <c r="P30">
-        <v>2006.1089999999999</v>
+        <v>516.64</v>
       </c>
       <c r="Q30">
-        <v>-507.35399999999998</v>
+        <v>42.447000000000003</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39446</v>
       </c>
       <c r="S30">
-        <v>11000</v>
+        <v>8700</v>
       </c>
       <c r="T30">
-        <v>2503.1880000000001</v>
+        <v>1575.277</v>
       </c>
       <c r="U30">
-        <v>202.13399999999999</v>
+        <v>203.34800000000001</v>
       </c>
       <c r="V30">
-        <v>128.096</v>
+        <v>94.768000000000001</v>
       </c>
       <c r="W30">
-        <v>-7.7160000000000002</v>
+        <v>-8.2940000000000005</v>
       </c>
       <c r="X30">
-        <v>816.68600000000004</v>
+        <v>226.363</v>
       </c>
       <c r="Y30">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>-10.782999999999999</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="AA30">
-        <v>-41.116999999999997</v>
+        <v>52.561999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43191</v>
+        <v>39537</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>26.024000000000001</v>
+        <v>20.138000000000002</v>
       </c>
       <c r="D31">
-        <v>643.97199999999998</v>
+        <v>458.72</v>
       </c>
       <c r="E31">
-        <v>575.74</v>
+        <v>353.48700000000002</v>
       </c>
       <c r="F31">
-        <v>301.43</v>
+        <v>192.114</v>
       </c>
       <c r="G31">
-        <v>1234.0039999999999</v>
+        <v>876.14800000000002</v>
       </c>
       <c r="H31">
-        <v>6126.1859999999997</v>
+        <v>3078.6030000000001</v>
       </c>
       <c r="I31">
-        <v>215.404</v>
+        <v>189.8</v>
       </c>
       <c r="J31">
-        <v>1825.498</v>
+        <v>566.06799999999998</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-150.00800000000001</v>
+        <v>-305.01600000000002</v>
       </c>
       <c r="N31">
-        <v>925.98400000000004</v>
+        <v>557.72400000000005</v>
       </c>
       <c r="O31">
-        <v>3570.9340000000002</v>
+        <v>1460.684</v>
       </c>
       <c r="P31">
-        <v>2077.4490000000001</v>
+        <v>566.61699999999996</v>
       </c>
       <c r="Q31">
-        <v>-21.366</v>
+        <v>-18.085999999999999</v>
       </c>
       <c r="R31">
-        <v>43191</v>
+        <v>39537</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>2555.252</v>
+        <v>1617.9190000000001</v>
       </c>
       <c r="U31">
-        <v>180.8</v>
+        <v>185.262</v>
       </c>
       <c r="V31">
-        <v>-14.558</v>
+        <v>15.605</v>
       </c>
       <c r="W31">
-        <v>-7.7270000000000003</v>
+        <v>-8.2360000000000007</v>
       </c>
       <c r="X31">
-        <v>13.009</v>
+        <v>41.405000000000001</v>
       </c>
       <c r="Y31">
-        <v>34.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="AA31">
-        <v>26.024000000000001</v>
+        <v>20.138000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43282</v>
+        <v>39628</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>64.063000000000002</v>
+        <v>23.706</v>
       </c>
       <c r="D32">
-        <v>703.36199999999997</v>
+        <v>504.96499999999997</v>
       </c>
       <c r="E32">
-        <v>564.04100000000005</v>
+        <v>349.68799999999999</v>
       </c>
       <c r="F32">
-        <v>349.14</v>
+        <v>215.03</v>
       </c>
       <c r="G32">
-        <v>1202.413</v>
+        <v>882.69100000000003</v>
       </c>
       <c r="H32">
-        <v>5957.7780000000002</v>
+        <v>3076.4679999999998</v>
       </c>
       <c r="I32">
-        <v>197.12799999999999</v>
+        <v>194.69900000000001</v>
       </c>
       <c r="J32">
-        <v>1950.153</v>
+        <v>521.05899999999997</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>712.69299999999998</v>
+        <v>570.58500000000004</v>
       </c>
       <c r="O32">
-        <v>3440.6010000000001</v>
+        <v>1420.9680000000001</v>
       </c>
       <c r="P32">
-        <v>2001.268</v>
+        <v>521.10199999999998</v>
       </c>
       <c r="Q32">
-        <v>-17.408999999999999</v>
+        <v>8.1890000000000001</v>
       </c>
       <c r="R32">
-        <v>43282</v>
+        <v>39628</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>2517.1770000000001</v>
+        <v>1655.5</v>
       </c>
       <c r="U32">
-        <v>163.392</v>
+        <v>193.45099999999999</v>
       </c>
       <c r="V32">
-        <v>72.984999999999999</v>
+        <v>79.257000000000005</v>
       </c>
       <c r="W32">
-        <v>-7.7439999999999998</v>
+        <v>-8.2509999999999994</v>
       </c>
       <c r="X32">
-        <v>-25.94</v>
+        <v>-48.866</v>
       </c>
       <c r="Y32">
-        <v>33.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="AA32">
-        <v>64.063000000000002</v>
+        <v>23.706</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39719</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>76.548000000000002</v>
+        <v>51.902000000000001</v>
       </c>
       <c r="D33">
-        <v>674.31299999999999</v>
+        <v>478.74700000000001</v>
       </c>
       <c r="E33">
-        <v>551.38499999999999</v>
+        <v>345.25099999999998</v>
       </c>
       <c r="F33">
-        <v>332.327</v>
+        <v>205.62299999999999</v>
       </c>
       <c r="G33">
-        <v>1165.4949999999999</v>
+        <v>865.07100000000003</v>
       </c>
       <c r="H33">
-        <v>5862.3549999999996</v>
+        <v>3021.2579999999998</v>
       </c>
       <c r="I33">
-        <v>180.69300000000001</v>
+        <v>184.857</v>
       </c>
       <c r="J33">
-        <v>1849.1020000000001</v>
+        <v>544.04999999999995</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>686.75199999999995</v>
+        <v>520.96900000000005</v>
       </c>
       <c r="O33">
-        <v>3289.886</v>
+        <v>1386.174</v>
       </c>
       <c r="P33">
-        <v>1902.5740000000001</v>
+        <v>544.09</v>
       </c>
       <c r="Q33">
-        <v>-10.879</v>
+        <v>-4.6429999999999998</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39719</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>2572.4690000000001</v>
+        <v>1635.0840000000001</v>
       </c>
       <c r="U33">
-        <v>149.51300000000001</v>
+        <v>188.80799999999999</v>
       </c>
       <c r="V33">
-        <v>93.191999999999993</v>
+        <v>32.406999999999996</v>
       </c>
       <c r="W33">
-        <v>-7.7510000000000003</v>
+        <v>-8.3179999999999996</v>
       </c>
       <c r="X33">
-        <v>-109.03100000000001</v>
+        <v>-16.870999999999999</v>
       </c>
       <c r="Y33">
-        <v>33.4</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>-5.5</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>76.548000000000002</v>
+        <v>51.902000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43464</v>
+        <v>39810</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>71.292000000000002</v>
+        <v>30.663</v>
       </c>
       <c r="D34">
-        <v>756.34900000000005</v>
+        <v>517.55899999999997</v>
       </c>
       <c r="E34">
-        <v>632.66899999999998</v>
+        <v>330.91500000000002</v>
       </c>
       <c r="F34">
-        <v>377.36200000000002</v>
+        <v>222.303</v>
       </c>
       <c r="G34">
-        <v>1234.634</v>
+        <v>830.74699999999996</v>
       </c>
       <c r="H34">
-        <v>5975.5219999999999</v>
+        <v>2931.7669999999998</v>
       </c>
       <c r="I34">
-        <v>220.94900000000001</v>
+        <v>171.21100000000001</v>
       </c>
       <c r="J34">
-        <v>1843.624</v>
+        <v>509.04</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,161 +3548,161 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>771.63099999999997</v>
+        <v>516.24199999999996</v>
       </c>
       <c r="O34">
-        <v>3390.567</v>
+        <v>1363.8240000000001</v>
       </c>
       <c r="P34">
-        <v>1891.48</v>
+        <v>509.08</v>
       </c>
       <c r="Q34">
-        <v>13.599</v>
+        <v>-9.6980000000000004</v>
       </c>
       <c r="R34">
-        <v>43464</v>
+        <v>39810</v>
       </c>
       <c r="S34">
-        <v>12500</v>
+        <v>7900</v>
       </c>
       <c r="T34">
-        <v>2584.9549999999999</v>
+        <v>1567.943</v>
       </c>
       <c r="U34">
-        <v>163.11099999999999</v>
+        <v>179.11</v>
       </c>
       <c r="V34">
-        <v>159.41900000000001</v>
+        <v>90.575000000000003</v>
       </c>
       <c r="W34">
-        <v>-7.7869999999999999</v>
+        <v>-8.2669999999999995</v>
       </c>
       <c r="X34">
-        <v>-57.268000000000001</v>
+        <v>-76.753</v>
       </c>
       <c r="Y34">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>-1.5189999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>71.292000000000002</v>
+        <v>30.663</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39908</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>35.411999999999999</v>
+        <v>10.558999999999999</v>
       </c>
       <c r="D35">
-        <v>648.73699999999997</v>
+        <v>435.15699999999998</v>
       </c>
       <c r="E35">
-        <v>623.92700000000002</v>
+        <v>292.10500000000002</v>
       </c>
       <c r="F35">
-        <v>308.089</v>
+        <v>188.75299999999999</v>
       </c>
       <c r="G35">
-        <v>1247.646</v>
+        <v>780.52499999999998</v>
       </c>
       <c r="H35">
-        <v>6086.4970000000003</v>
+        <v>2858.4929999999999</v>
       </c>
       <c r="I35">
-        <v>219.34100000000001</v>
+        <v>143.34700000000001</v>
       </c>
       <c r="J35">
-        <v>1848.9349999999999</v>
+        <v>544.03</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-155.476</v>
+        <v>-71.573999999999998</v>
       </c>
       <c r="N35">
-        <v>742.26800000000003</v>
+        <v>468.84500000000003</v>
       </c>
       <c r="O35">
-        <v>3448.0250000000001</v>
+        <v>1346.0920000000001</v>
       </c>
       <c r="P35">
-        <v>2068.0520000000001</v>
+        <v>544.07000000000005</v>
       </c>
       <c r="Q35">
-        <v>-28.859000000000002</v>
+        <v>-17.061</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39908</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>2638.4720000000002</v>
+        <v>1512.4010000000001</v>
       </c>
       <c r="U35">
-        <v>134.25200000000001</v>
+        <v>162.04900000000001</v>
       </c>
       <c r="V35">
-        <v>-5.3159999999999998</v>
+        <v>14.945</v>
       </c>
       <c r="W35">
-        <v>-7.7430000000000003</v>
+        <v>-8.2050000000000001</v>
       </c>
       <c r="X35">
-        <v>5.2350000000000003</v>
+        <v>10.865</v>
       </c>
       <c r="Y35">
-        <v>167.74799999999999</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-0.51900000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>35.411999999999999</v>
+        <v>10.558999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39999</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>69.087000000000003</v>
+        <v>21.504999999999999</v>
       </c>
       <c r="D36">
-        <v>722.51700000000005</v>
+        <v>310.09699999999998</v>
       </c>
       <c r="E36">
-        <v>654.45399999999995</v>
+        <v>328.22800000000001</v>
       </c>
       <c r="F36">
-        <v>353.09300000000002</v>
+        <v>147.631</v>
       </c>
       <c r="G36">
-        <v>1337.761</v>
+        <v>819.95399999999995</v>
       </c>
       <c r="H36">
-        <v>6399.0720000000001</v>
+        <v>2945.873</v>
       </c>
       <c r="I36">
-        <v>188.05099999999999</v>
+        <v>153.905</v>
       </c>
       <c r="J36">
-        <v>2104.4659999999999</v>
+        <v>524</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>706.79899999999998</v>
+        <v>496.80799999999999</v>
       </c>
       <c r="O36">
-        <v>3692.2049999999999</v>
+        <v>1371.5409999999999</v>
       </c>
       <c r="P36">
-        <v>2316.9679999999998</v>
+        <v>524</v>
       </c>
       <c r="Q36">
-        <v>15.763999999999999</v>
+        <v>-10.71</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39999</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2706.8670000000002</v>
+        <v>1574.3320000000001</v>
       </c>
       <c r="U36">
-        <v>150.01599999999999</v>
+        <v>151.339</v>
       </c>
       <c r="V36">
-        <v>46.859000000000002</v>
+        <v>36.274999999999999</v>
       </c>
       <c r="W36">
-        <v>-7.7640000000000002</v>
+        <v>-8.1530000000000005</v>
       </c>
       <c r="X36">
-        <v>225.959</v>
+        <v>-28.405000000000001</v>
       </c>
       <c r="Y36">
-        <v>164.011</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-0.34899999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>69.087000000000003</v>
+        <v>21.504999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43737</v>
+        <v>40090</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>58.558</v>
+        <v>13.589</v>
       </c>
       <c r="D37">
-        <v>706.923</v>
+        <v>377.036</v>
       </c>
       <c r="E37">
-        <v>646.28599999999994</v>
+        <v>348.399</v>
       </c>
       <c r="F37">
-        <v>349.97500000000002</v>
+        <v>169.04</v>
       </c>
       <c r="G37">
-        <v>1548.405</v>
+        <v>851.26400000000001</v>
       </c>
       <c r="H37">
-        <v>6489.0810000000001</v>
+        <v>3058.7860000000001</v>
       </c>
       <c r="I37">
-        <v>190.261</v>
+        <v>158.95699999999999</v>
       </c>
       <c r="J37">
-        <v>1750.925</v>
+        <v>576.73400000000004</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1188.1020000000001</v>
+        <v>512.928</v>
       </c>
       <c r="O37">
-        <v>3782.2840000000001</v>
+        <v>1457.028</v>
       </c>
       <c r="P37">
-        <v>2448.2440000000001</v>
+        <v>576.88</v>
       </c>
       <c r="Q37">
-        <v>242.75700000000001</v>
+        <v>-0.753</v>
       </c>
       <c r="R37">
-        <v>43737</v>
+        <v>40090</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>2706.797</v>
+        <v>1601.758</v>
       </c>
       <c r="U37">
-        <v>392.96899999999999</v>
+        <v>150.58600000000001</v>
       </c>
       <c r="V37">
-        <v>106.715</v>
+        <v>34.402999999999999</v>
       </c>
       <c r="W37">
-        <v>-7.7750000000000004</v>
+        <v>-8.17</v>
       </c>
       <c r="X37">
-        <v>170.13300000000001</v>
+        <v>42.488</v>
       </c>
       <c r="Y37">
-        <v>153.21600000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-4.5190000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>58.558</v>
+        <v>13.589</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43828</v>
+        <v>40181</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>64.501000000000005</v>
+        <v>39.945999999999998</v>
       </c>
       <c r="D38">
-        <v>805.49599999999998</v>
+        <v>428.476</v>
       </c>
       <c r="E38">
-        <v>725.18399999999997</v>
+        <v>320.18</v>
       </c>
       <c r="F38">
-        <v>406.51299999999998</v>
+        <v>194.69900000000001</v>
       </c>
       <c r="G38">
-        <v>1374.3789999999999</v>
+        <v>884.01800000000003</v>
       </c>
       <c r="H38">
-        <v>6538.5640000000003</v>
+        <v>3059.04</v>
       </c>
       <c r="I38">
-        <v>235.85499999999999</v>
+        <v>133.792</v>
       </c>
       <c r="J38">
-        <v>2064.0410000000002</v>
+        <v>558.197</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>762.83199999999999</v>
+        <v>497.20400000000001</v>
       </c>
       <c r="O38">
-        <v>3724.74</v>
+        <v>1430.0830000000001</v>
       </c>
       <c r="P38">
-        <v>2256.9870000000001</v>
+        <v>558.34299999999996</v>
       </c>
       <c r="Q38">
-        <v>-204.083</v>
+        <v>29.120999999999999</v>
       </c>
       <c r="R38">
-        <v>43828</v>
+        <v>40181</v>
       </c>
       <c r="S38">
-        <v>13000</v>
+        <v>8200</v>
       </c>
       <c r="T38">
-        <v>2813.8240000000001</v>
+        <v>1628.9570000000001</v>
       </c>
       <c r="U38">
-        <v>191.87700000000001</v>
+        <v>179.70699999999999</v>
       </c>
       <c r="V38">
-        <v>215.21100000000001</v>
+        <v>63.098999999999997</v>
       </c>
       <c r="W38">
-        <v>-7.7770000000000001</v>
+        <v>-8.173</v>
       </c>
       <c r="X38">
-        <v>-251.197</v>
+        <v>-22.536000000000001</v>
       </c>
       <c r="Y38">
-        <v>146.399</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>64.501000000000005</v>
+        <v>39.945999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43926</v>
+        <v>40272</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>33.664999999999999</v>
+        <v>24.390999999999998</v>
       </c>
       <c r="D39">
-        <v>652.39599999999996</v>
+        <v>393.62</v>
       </c>
       <c r="E39">
-        <v>626.15</v>
+        <v>359.58499999999998</v>
       </c>
       <c r="F39">
-        <v>309.11099999999999</v>
+        <v>175.26599999999999</v>
       </c>
       <c r="G39">
-        <v>1341.826</v>
+        <v>891.07</v>
       </c>
       <c r="H39">
-        <v>6384.3959999999997</v>
+        <v>3027.0239999999999</v>
       </c>
       <c r="I39">
-        <v>233.227</v>
+        <v>168.483</v>
       </c>
       <c r="J39">
-        <v>2010.5250000000001</v>
+        <v>528.16099999999994</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-145.28299999999999</v>
+        <v>-62.036999999999999</v>
       </c>
       <c r="N39">
-        <v>730.14400000000001</v>
+        <v>498.363</v>
       </c>
       <c r="O39">
-        <v>3624.65</v>
+        <v>1395.62</v>
       </c>
       <c r="P39">
-        <v>2200.0059999999999</v>
+        <v>528.30799999999999</v>
       </c>
       <c r="Q39">
-        <v>3.2749999999999999</v>
+        <v>2.0369999999999999</v>
       </c>
       <c r="R39">
-        <v>43926</v>
+        <v>40272</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2759.7460000000001</v>
+        <v>1631.404</v>
       </c>
       <c r="U39">
-        <v>195.14599999999999</v>
+        <v>181.744</v>
       </c>
       <c r="V39">
-        <v>60.05</v>
+        <v>49.392000000000003</v>
       </c>
       <c r="W39">
-        <v>-7.7809999999999997</v>
+        <v>-8.2270000000000003</v>
       </c>
       <c r="X39">
-        <v>-24.591999999999999</v>
+        <v>-29.724</v>
       </c>
       <c r="Y39">
-        <v>179.827</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-1.6379999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>33.664999999999999</v>
+        <v>24.390999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44017</v>
+        <v>40363</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>137.16200000000001</v>
+        <v>57.643000000000001</v>
       </c>
       <c r="D40">
-        <v>811.71799999999996</v>
+        <v>421.613</v>
       </c>
       <c r="E40">
-        <v>708.79899999999998</v>
+        <v>365.17500000000001</v>
       </c>
       <c r="F40">
-        <v>447.74400000000003</v>
+        <v>189.25299999999999</v>
       </c>
       <c r="G40">
-        <v>1531.413</v>
+        <v>923.86800000000005</v>
       </c>
       <c r="H40">
-        <v>6636.8159999999998</v>
+        <v>3146.0390000000002</v>
       </c>
       <c r="I40">
-        <v>255.137</v>
+        <v>174.94300000000001</v>
       </c>
       <c r="J40">
-        <v>1624.9960000000001</v>
+        <v>620.13800000000003</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1163.2560000000001</v>
+        <v>513.91300000000001</v>
       </c>
       <c r="O40">
-        <v>3669.3530000000001</v>
+        <v>1502.347</v>
       </c>
       <c r="P40">
-        <v>2149.2310000000002</v>
+        <v>620.28499999999997</v>
       </c>
       <c r="Q40">
-        <v>24.771999999999998</v>
+        <v>33.92</v>
       </c>
       <c r="R40">
-        <v>44017</v>
+        <v>40363</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2967.4630000000002</v>
+        <v>1643.692</v>
       </c>
       <c r="U40">
-        <v>218.536</v>
+        <v>215.66399999999999</v>
       </c>
       <c r="V40">
-        <v>138.596</v>
+        <v>70.667000000000002</v>
       </c>
       <c r="W40">
-        <v>-7.7910000000000004</v>
+        <v>-8.2469999999999999</v>
       </c>
       <c r="X40">
-        <v>-95.774000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="Y40">
-        <v>177.893</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-5.7549999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>137.16200000000001</v>
+        <v>57.643000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44108</v>
+        <v>40454</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>176.69900000000001</v>
+        <v>13.391</v>
       </c>
       <c r="D41">
-        <v>964.02499999999998</v>
+        <v>419.14299999999997</v>
       </c>
       <c r="E41">
-        <v>797.91099999999994</v>
+        <v>323.536</v>
       </c>
       <c r="F41">
-        <v>527.745</v>
+        <v>185.78299999999999</v>
       </c>
       <c r="G41">
-        <v>1675.8209999999999</v>
+        <v>977.58500000000004</v>
       </c>
       <c r="H41">
-        <v>6865.5649999999996</v>
+        <v>3248.011</v>
       </c>
       <c r="I41">
-        <v>258.03800000000001</v>
+        <v>143.01</v>
       </c>
       <c r="J41">
-        <v>1492.633</v>
+        <v>670.13099999999997</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1244.797</v>
+        <v>513.84500000000003</v>
       </c>
       <c r="O41">
-        <v>3633.884</v>
+        <v>1540.9760000000001</v>
       </c>
       <c r="P41">
-        <v>2028.5039999999999</v>
+        <v>670.28099999999995</v>
       </c>
       <c r="Q41">
-        <v>38.462000000000003</v>
+        <v>35.323999999999998</v>
       </c>
       <c r="R41">
-        <v>44108</v>
+        <v>40454</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>3231.681</v>
+        <v>1707.0350000000001</v>
       </c>
       <c r="U41">
-        <v>258.29300000000001</v>
+        <v>250.988</v>
       </c>
       <c r="V41">
-        <v>211.434</v>
+        <v>15.272</v>
       </c>
       <c r="W41">
-        <v>-7.8090000000000002</v>
+        <v>-8.2550000000000008</v>
       </c>
       <c r="X41">
-        <v>-155.93899999999999</v>
+        <v>37.543999999999997</v>
       </c>
       <c r="Y41">
-        <v>175.654</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-2.1659999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>176.69900000000001</v>
+        <v>13.391</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44199</v>
+        <v>40545</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>295.55799999999999</v>
+      </c>
+      <c r="D42">
+        <v>469.97</v>
+      </c>
+      <c r="E42">
+        <v>356.76299999999998</v>
+      </c>
+      <c r="F42">
+        <v>210.93199999999999</v>
+      </c>
+      <c r="G42">
+        <v>1084.6120000000001</v>
+      </c>
+      <c r="H42">
+        <v>3208.9459999999999</v>
+      </c>
+      <c r="I42">
+        <v>161.042</v>
+      </c>
+      <c r="J42">
+        <v>424</v>
+      </c>
+      <c r="K42">
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>515.202</v>
+      </c>
+      <c r="O42">
+        <v>1283.5550000000001</v>
+      </c>
+      <c r="P42">
+        <v>426.255</v>
+      </c>
+      <c r="Q42">
+        <v>169.09800000000001</v>
+      </c>
+      <c r="R42">
+        <v>40545</v>
+      </c>
+      <c r="S42">
+        <v>6200</v>
+      </c>
+      <c r="T42">
+        <v>1925.3910000000001</v>
+      </c>
+      <c r="U42">
+        <v>420.08600000000001</v>
+      </c>
+      <c r="V42">
+        <v>28.922000000000001</v>
+      </c>
+      <c r="W42">
+        <v>-8.2629999999999999</v>
+      </c>
+      <c r="X42">
+        <v>-307.887</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>295.55799999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40636</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>24.913</v>
+      </c>
+      <c r="D43">
+        <v>447.178</v>
+      </c>
+      <c r="E43">
+        <v>345.49200000000002</v>
+      </c>
+      <c r="F43">
+        <v>200.42099999999999</v>
+      </c>
+      <c r="G43">
+        <v>1087.7</v>
+      </c>
+      <c r="H43">
+        <v>3306.1</v>
+      </c>
+      <c r="I43">
+        <v>149.196</v>
+      </c>
+      <c r="J43">
+        <v>514</v>
+      </c>
+      <c r="K43">
+        <v>2.25</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-118.238</v>
+      </c>
+      <c r="N43">
+        <v>511.214</v>
+      </c>
+      <c r="O43">
+        <v>1398.1679999999999</v>
+      </c>
+      <c r="P43">
+        <v>516.25</v>
+      </c>
+      <c r="Q43">
+        <v>-4.2380000000000004</v>
+      </c>
+      <c r="R43">
+        <v>40636</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1907.932</v>
+      </c>
+      <c r="U43">
+        <v>415.84800000000001</v>
+      </c>
+      <c r="V43">
+        <v>42.651000000000003</v>
+      </c>
+      <c r="W43">
+        <v>-8.1059999999999999</v>
+      </c>
+      <c r="X43">
+        <v>-3.8109999999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>24.913</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40727</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>29.760999999999999</v>
+      </c>
+      <c r="D44">
+        <v>479.065</v>
+      </c>
+      <c r="E44">
+        <v>382.71699999999998</v>
+      </c>
+      <c r="F44">
+        <v>209.494</v>
+      </c>
+      <c r="G44">
+        <v>1076.171</v>
+      </c>
+      <c r="H44">
+        <v>3595.8589999999999</v>
+      </c>
+      <c r="I44">
+        <v>149.21199999999999</v>
+      </c>
+      <c r="J44">
+        <v>671</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>559.35199999999998</v>
+      </c>
+      <c r="O44">
+        <v>1639.3979999999999</v>
+      </c>
+      <c r="P44">
+        <v>671</v>
+      </c>
+      <c r="Q44">
+        <v>-20.64</v>
+      </c>
+      <c r="R44">
+        <v>40727</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1956.461</v>
+      </c>
+      <c r="U44">
+        <v>395.20800000000003</v>
+      </c>
+      <c r="V44">
+        <v>51.9</v>
+      </c>
+      <c r="W44">
+        <v>-7.891</v>
+      </c>
+      <c r="X44">
+        <v>152.61199999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>29.760999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40818</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>36.622</v>
+      </c>
+      <c r="D45">
+        <v>452.935</v>
+      </c>
+      <c r="E45">
+        <v>359.67200000000003</v>
+      </c>
+      <c r="F45">
+        <v>199.45599999999999</v>
+      </c>
+      <c r="G45">
+        <v>929.82500000000005</v>
+      </c>
+      <c r="H45">
+        <v>3401.9380000000001</v>
+      </c>
+      <c r="I45">
+        <v>150.81299999999999</v>
+      </c>
+      <c r="J45">
+        <v>150</v>
+      </c>
+      <c r="K45">
+        <v>358</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>875.95699999999999</v>
+      </c>
+      <c r="O45">
+        <v>1456.798</v>
+      </c>
+      <c r="P45">
+        <v>508</v>
+      </c>
+      <c r="Q45">
+        <v>-147.10599999999999</v>
+      </c>
+      <c r="R45">
+        <v>40818</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1945.14</v>
+      </c>
+      <c r="U45">
+        <v>248.102</v>
+      </c>
+      <c r="V45">
+        <v>47.798000000000002</v>
+      </c>
+      <c r="W45">
+        <v>-7.9160000000000004</v>
+      </c>
+      <c r="X45">
+        <v>-171.09299999999999</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>36.622</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40909</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>-83.641000000000005</v>
+      </c>
+      <c r="D46">
+        <v>539.33000000000004</v>
+      </c>
+      <c r="E46">
+        <v>409.88799999999998</v>
+      </c>
+      <c r="F46">
+        <v>242.59899999999999</v>
+      </c>
+      <c r="G46">
+        <v>883.05200000000002</v>
+      </c>
+      <c r="H46">
+        <v>3855.6410000000001</v>
+      </c>
+      <c r="I46">
+        <v>173.15299999999999</v>
+      </c>
+      <c r="J46">
+        <v>944.90800000000002</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>598.68200000000002</v>
+      </c>
+      <c r="O46">
+        <v>2013.425</v>
+      </c>
+      <c r="P46">
+        <v>944.90800000000002</v>
+      </c>
+      <c r="Q46">
+        <v>-105.76</v>
+      </c>
+      <c r="R46">
+        <v>40909</v>
+      </c>
+      <c r="S46">
+        <v>7200</v>
+      </c>
+      <c r="T46">
+        <v>1842.2159999999999</v>
+      </c>
+      <c r="U46">
+        <v>142.34200000000001</v>
+      </c>
+      <c r="V46">
+        <v>82.525000000000006</v>
+      </c>
+      <c r="W46">
+        <v>-7.9160000000000004</v>
+      </c>
+      <c r="X46">
+        <v>419.49599999999998</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>-83.641000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>22.568999999999999</v>
+      </c>
+      <c r="D47">
+        <v>510.89</v>
+      </c>
+      <c r="E47">
+        <v>407.86700000000002</v>
+      </c>
+      <c r="F47">
+        <v>236.50899999999999</v>
+      </c>
+      <c r="G47">
+        <v>908.06399999999996</v>
+      </c>
+      <c r="H47">
+        <v>3864.2379999999998</v>
+      </c>
+      <c r="I47">
+        <v>163.00299999999999</v>
+      </c>
+      <c r="J47">
+        <v>933.971</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-122</v>
+      </c>
+      <c r="N47">
+        <v>602.78599999999994</v>
+      </c>
+      <c r="O47">
+        <v>1981.655</v>
+      </c>
+      <c r="P47">
+        <v>933.971</v>
+      </c>
+      <c r="Q47">
+        <v>2.415</v>
+      </c>
+      <c r="R47">
+        <v>41000</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1882.5830000000001</v>
+      </c>
+      <c r="U47">
+        <v>144.75700000000001</v>
+      </c>
+      <c r="V47">
+        <v>15.539</v>
+      </c>
+      <c r="W47">
+        <v>-7.9219999999999997</v>
+      </c>
+      <c r="X47">
+        <v>-10.195</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>22.568999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>33.633000000000003</v>
+      </c>
+      <c r="D48">
+        <v>521.79</v>
+      </c>
+      <c r="E48">
+        <v>389.46600000000001</v>
+      </c>
+      <c r="F48">
+        <v>239.09399999999999</v>
+      </c>
+      <c r="G48">
+        <v>897.8</v>
+      </c>
+      <c r="H48">
+        <v>3800.9369999999999</v>
+      </c>
+      <c r="I48">
+        <v>174.02799999999999</v>
+      </c>
+      <c r="J48">
+        <v>911.04300000000001</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>587.68499999999995</v>
+      </c>
+      <c r="O48">
+        <v>1915.607</v>
+      </c>
+      <c r="P48">
+        <v>911.04300000000001</v>
+      </c>
+      <c r="Q48">
+        <v>26.646000000000001</v>
+      </c>
+      <c r="R48">
+        <v>41091</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1885.33</v>
+      </c>
+      <c r="U48">
+        <v>171.40299999999999</v>
+      </c>
+      <c r="V48">
+        <v>76.39</v>
+      </c>
+      <c r="W48">
+        <v>-7.9690000000000003</v>
+      </c>
+      <c r="X48">
+        <v>-38.633000000000003</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>33.633000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>29.594000000000001</v>
+      </c>
+      <c r="D49">
+        <v>509.60399999999998</v>
+      </c>
+      <c r="E49">
+        <v>394.93700000000001</v>
+      </c>
+      <c r="F49">
+        <v>230.74</v>
+      </c>
+      <c r="G49">
+        <v>940.99400000000003</v>
+      </c>
+      <c r="H49">
+        <v>3889.971</v>
+      </c>
+      <c r="I49">
+        <v>155.72800000000001</v>
+      </c>
+      <c r="J49">
+        <v>930.86</v>
+      </c>
+      <c r="K49">
+        <v>1.47</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>582.27700000000004</v>
+      </c>
+      <c r="O49">
+        <v>1947.5309999999999</v>
+      </c>
+      <c r="P49">
+        <v>932.33</v>
+      </c>
+      <c r="Q49">
+        <v>-0.57499999999999996</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1942.44</v>
+      </c>
+      <c r="U49">
+        <v>170.828</v>
+      </c>
+      <c r="V49">
+        <v>20.716999999999999</v>
+      </c>
+      <c r="W49">
+        <v>-7.984</v>
+      </c>
+      <c r="X49">
+        <v>-7.4459999999999997</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>29.594000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41273</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>-15.856</v>
+      </c>
+      <c r="D50">
+        <v>572.92100000000005</v>
+      </c>
+      <c r="E50">
+        <v>457.01100000000002</v>
+      </c>
+      <c r="F50">
+        <v>262.09800000000001</v>
+      </c>
+      <c r="G50">
+        <v>971.75400000000002</v>
+      </c>
+      <c r="H50">
+        <v>3901.7620000000002</v>
+      </c>
+      <c r="I50">
+        <v>168.94300000000001</v>
+      </c>
+      <c r="J50">
+        <v>938.82399999999996</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>581.1</v>
+      </c>
+      <c r="O50">
+        <v>1961.95</v>
+      </c>
+      <c r="P50">
+        <v>940.596</v>
+      </c>
+      <c r="Q50">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="R50">
+        <v>41273</v>
+      </c>
+      <c r="S50">
+        <v>7500</v>
+      </c>
+      <c r="T50">
+        <v>1939.8119999999999</v>
+      </c>
+      <c r="U50">
+        <v>171.44399999999999</v>
+      </c>
+      <c r="V50">
+        <v>39.524000000000001</v>
+      </c>
+      <c r="W50">
+        <v>-8.0280000000000005</v>
+      </c>
+      <c r="X50">
+        <v>12.111000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>-15.856</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>32.216000000000001</v>
+      </c>
+      <c r="D51">
+        <v>502.94299999999998</v>
+      </c>
+      <c r="E51">
+        <v>410.78199999999998</v>
+      </c>
+      <c r="F51">
+        <v>224.54499999999999</v>
+      </c>
+      <c r="G51">
+        <v>896.69200000000001</v>
+      </c>
+      <c r="H51">
+        <v>3808.1460000000002</v>
+      </c>
+      <c r="I51">
+        <v>172.166</v>
+      </c>
+      <c r="J51">
+        <v>983.245</v>
+      </c>
+      <c r="K51">
+        <v>5.4009999999999998</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-135</v>
+      </c>
+      <c r="N51">
+        <v>573.35400000000004</v>
+      </c>
+      <c r="O51">
+        <v>1973.723</v>
+      </c>
+      <c r="P51">
+        <v>1026.646</v>
+      </c>
+      <c r="Q51">
+        <v>-45.573</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1834.423</v>
+      </c>
+      <c r="U51">
+        <v>125.871</v>
+      </c>
+      <c r="V51">
+        <v>10.930999999999999</v>
+      </c>
+      <c r="W51">
+        <v>-8.06</v>
+      </c>
+      <c r="X51">
+        <v>-42.594000000000001</v>
+      </c>
+      <c r="Y51">
+        <v>36.1</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>32.216000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>27.925000000000001</v>
+      </c>
+      <c r="D52">
+        <v>540.673</v>
+      </c>
+      <c r="E52">
+        <v>434.798</v>
+      </c>
+      <c r="F52">
+        <v>241.762</v>
+      </c>
+      <c r="G52">
+        <v>906.505</v>
+      </c>
+      <c r="H52">
+        <v>3811.2840000000001</v>
+      </c>
+      <c r="I52">
+        <v>170.12200000000001</v>
+      </c>
+      <c r="J52">
+        <v>963.25800000000004</v>
+      </c>
+      <c r="K52">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>563.28099999999995</v>
+      </c>
+      <c r="O52">
+        <v>1951.432</v>
+      </c>
+      <c r="P52">
+        <v>1004.073</v>
+      </c>
+      <c r="Q52">
+        <v>-13.401</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1859.8520000000001</v>
+      </c>
+      <c r="U52">
+        <v>112.47</v>
+      </c>
+      <c r="V52">
+        <v>27.861999999999998</v>
+      </c>
+      <c r="W52">
+        <v>-7.8319999999999999</v>
+      </c>
+      <c r="X52">
+        <v>-28.375</v>
+      </c>
+      <c r="Y52">
+        <v>38.6</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>27.925000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41546</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>40.198</v>
+      </c>
+      <c r="D53">
+        <v>522.1</v>
+      </c>
+      <c r="E53">
+        <v>428.53100000000001</v>
+      </c>
+      <c r="F53">
+        <v>233.46799999999999</v>
+      </c>
+      <c r="G53">
+        <v>948.42399999999998</v>
+      </c>
+      <c r="H53">
+        <v>3851.5259999999998</v>
+      </c>
+      <c r="I53">
+        <v>162.523</v>
+      </c>
+      <c r="J53">
+        <v>895.39200000000005</v>
+      </c>
+      <c r="K53">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>589.39099999999996</v>
+      </c>
+      <c r="O53">
+        <v>1931.9549999999999</v>
+      </c>
+      <c r="P53">
+        <v>935.91399999999999</v>
+      </c>
+      <c r="Q53">
+        <v>19.832999999999998</v>
+      </c>
+      <c r="R53">
+        <v>41546</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1919.5709999999999</v>
+      </c>
+      <c r="U53">
+        <v>132.303</v>
+      </c>
+      <c r="V53">
+        <v>48.094999999999999</v>
+      </c>
+      <c r="W53">
+        <v>-7.8410000000000002</v>
+      </c>
+      <c r="X53">
+        <v>-67.765000000000001</v>
+      </c>
+      <c r="Y53">
+        <v>37.9</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>40.198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41637</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>66.873000000000005</v>
+      </c>
+      <c r="D54">
+        <v>591.87</v>
+      </c>
+      <c r="E54">
+        <v>466.74900000000002</v>
+      </c>
+      <c r="F54">
+        <v>276.57</v>
+      </c>
+      <c r="G54">
+        <v>1044.838</v>
+      </c>
+      <c r="H54">
+        <v>3946.712</v>
+      </c>
+      <c r="I54">
+        <v>166.881</v>
+      </c>
+      <c r="J54">
+        <v>894.404</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>602.79600000000005</v>
+      </c>
+      <c r="O54">
+        <v>1952.2249999999999</v>
+      </c>
+      <c r="P54">
+        <v>934.72799999999995</v>
+      </c>
+      <c r="Q54">
+        <v>40.939</v>
+      </c>
+      <c r="R54">
+        <v>41637</v>
+      </c>
+      <c r="S54">
+        <v>7600</v>
+      </c>
+      <c r="T54">
+        <v>1994.4870000000001</v>
+      </c>
+      <c r="U54">
+        <v>173.24199999999999</v>
+      </c>
+      <c r="V54">
+        <v>71.703000000000003</v>
+      </c>
+      <c r="W54">
+        <v>-7.867</v>
+      </c>
+      <c r="X54">
+        <v>-15.426</v>
+      </c>
+      <c r="Y54">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>66.873000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41728</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>34.223999999999997</v>
+      </c>
+      <c r="D55">
+        <v>530.61</v>
+      </c>
+      <c r="E55">
+        <v>442.976</v>
+      </c>
+      <c r="F55">
+        <v>235.71299999999999</v>
+      </c>
+      <c r="G55">
+        <v>1097.5820000000001</v>
+      </c>
+      <c r="H55">
+        <v>3971.078</v>
+      </c>
+      <c r="I55">
+        <v>168.03899999999999</v>
+      </c>
+      <c r="J55">
+        <v>889.49699999999996</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-95.251999999999995</v>
+      </c>
+      <c r="N55">
+        <v>605.46199999999999</v>
+      </c>
+      <c r="O55">
+        <v>1941.6420000000001</v>
+      </c>
+      <c r="P55">
+        <v>929.52300000000002</v>
+      </c>
+      <c r="Q55">
+        <v>50.871000000000002</v>
+      </c>
+      <c r="R55">
+        <v>41728</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2029.4359999999999</v>
+      </c>
+      <c r="U55">
+        <v>224.113</v>
+      </c>
+      <c r="V55">
+        <v>67.710999999999999</v>
+      </c>
+      <c r="W55">
+        <v>-7.8869999999999996</v>
+      </c>
+      <c r="X55">
+        <v>-11.548</v>
+      </c>
+      <c r="Y55">
+        <v>37.4</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>34.223999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41819</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>50.49</v>
+      </c>
+      <c r="D56">
+        <v>556.16999999999996</v>
+      </c>
+      <c r="E56">
+        <v>443.72199999999998</v>
+      </c>
+      <c r="F56">
+        <v>247.98400000000001</v>
+      </c>
+      <c r="G56">
+        <v>1080.6489999999999</v>
+      </c>
+      <c r="H56">
+        <v>3936.5680000000002</v>
+      </c>
+      <c r="I56">
+        <v>155.41499999999999</v>
+      </c>
+      <c r="J56">
+        <v>855.58199999999999</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>578.59900000000005</v>
+      </c>
+      <c r="O56">
+        <v>1880.577</v>
+      </c>
+      <c r="P56">
+        <v>895.33299999999997</v>
+      </c>
+      <c r="Q56">
+        <v>-18.855</v>
+      </c>
+      <c r="R56">
+        <v>41819</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2055.991</v>
+      </c>
+      <c r="U56">
+        <v>205.25800000000001</v>
+      </c>
+      <c r="V56">
+        <v>54.395000000000003</v>
+      </c>
+      <c r="W56">
+        <v>-7.9219999999999997</v>
+      </c>
+      <c r="X56">
+        <v>-65.135000000000005</v>
+      </c>
+      <c r="Y56">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>50.49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>42.277000000000001</v>
+      </c>
+      <c r="D57">
+        <v>542.04899999999998</v>
+      </c>
+      <c r="E57">
+        <v>427.00799999999998</v>
+      </c>
+      <c r="F57">
+        <v>243.32900000000001</v>
+      </c>
+      <c r="G57">
+        <v>1074.347</v>
+      </c>
+      <c r="H57">
+        <v>3886.47</v>
+      </c>
+      <c r="I57">
+        <v>160.506</v>
+      </c>
+      <c r="J57">
+        <v>820.07799999999997</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>567.43299999999999</v>
+      </c>
+      <c r="O57">
+        <v>1823.7159999999999</v>
+      </c>
+      <c r="P57">
+        <v>859.73500000000001</v>
+      </c>
+      <c r="Q57">
+        <v>-1.575</v>
+      </c>
+      <c r="R57">
+        <v>41910</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>2062.7539999999999</v>
+      </c>
+      <c r="U57">
+        <v>203.68299999999999</v>
+      </c>
+      <c r="V57">
+        <v>62.927</v>
+      </c>
+      <c r="W57">
+        <v>-7.9039999999999999</v>
+      </c>
+      <c r="X57">
+        <v>-47.012</v>
+      </c>
+      <c r="Y57">
+        <v>38.5</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>42.277000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42001</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>30.786999999999999</v>
+      </c>
+      <c r="D58">
+        <v>608.39</v>
+      </c>
+      <c r="E58">
+        <v>470.56299999999999</v>
+      </c>
+      <c r="F58">
+        <v>279.97699999999998</v>
+      </c>
+      <c r="G58">
+        <v>1068.5509999999999</v>
+      </c>
+      <c r="H58">
+        <v>4127.576</v>
+      </c>
+      <c r="I58">
+        <v>173.953</v>
+      </c>
+      <c r="J58">
+        <v>1007.193</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>597.30999999999995</v>
+      </c>
+      <c r="O58">
+        <v>2085.4740000000002</v>
+      </c>
+      <c r="P58">
+        <v>1046.4680000000001</v>
+      </c>
+      <c r="Q58">
+        <v>-28.861999999999998</v>
+      </c>
+      <c r="R58">
+        <v>42001</v>
+      </c>
+      <c r="S58">
+        <v>7700</v>
+      </c>
+      <c r="T58">
+        <v>2042.1020000000001</v>
+      </c>
+      <c r="U58">
+        <v>174.821</v>
+      </c>
+      <c r="V58">
+        <v>96.563999999999993</v>
+      </c>
+      <c r="W58">
+        <v>-7.907</v>
+      </c>
+      <c r="X58">
+        <v>154.626</v>
+      </c>
+      <c r="Y58">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>30.786999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42092</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>40.334000000000003</v>
+      </c>
+      <c r="D59">
+        <v>526.90099999999995</v>
+      </c>
+      <c r="E59">
+        <v>415.37799999999999</v>
+      </c>
+      <c r="F59">
+        <v>240.244</v>
+      </c>
+      <c r="G59">
+        <v>1022.535</v>
+      </c>
+      <c r="H59">
+        <v>4028.2710000000002</v>
+      </c>
+      <c r="I59">
+        <v>157.471</v>
+      </c>
+      <c r="J59">
+        <v>976.76599999999996</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-98.263000000000005</v>
+      </c>
+      <c r="N59">
+        <v>550.58100000000002</v>
+      </c>
+      <c r="O59">
+        <v>1968.386</v>
+      </c>
+      <c r="P59">
+        <v>1015.749</v>
+      </c>
+      <c r="Q59">
+        <v>-5.8970000000000002</v>
+      </c>
+      <c r="R59">
+        <v>42092</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>2059.8850000000002</v>
+      </c>
+      <c r="U59">
+        <v>168.92400000000001</v>
+      </c>
+      <c r="V59">
+        <v>37.662999999999997</v>
+      </c>
+      <c r="W59">
+        <v>-7.8760000000000003</v>
+      </c>
+      <c r="X59">
+        <v>-24.69</v>
+      </c>
+      <c r="Y59">
+        <v>37.9</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>40.334000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>48.973999999999997</v>
+      </c>
+      <c r="D60">
+        <v>563.90599999999995</v>
+      </c>
+      <c r="E60">
+        <v>425.69799999999998</v>
+      </c>
+      <c r="F60">
+        <v>254.11199999999999</v>
+      </c>
+      <c r="G60">
+        <v>1070.328</v>
+      </c>
+      <c r="H60">
+        <v>4082.7559999999999</v>
+      </c>
+      <c r="I60">
+        <v>170.67699999999999</v>
+      </c>
+      <c r="J60">
+        <v>948.85199999999998</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>574.34400000000005</v>
+      </c>
+      <c r="O60">
+        <v>1961.8520000000001</v>
+      </c>
+      <c r="P60">
+        <v>988.42600000000004</v>
+      </c>
+      <c r="Q60">
+        <v>23.245999999999999</v>
+      </c>
+      <c r="R60">
+        <v>42183</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>2120.904</v>
+      </c>
+      <c r="U60">
+        <v>192.17</v>
+      </c>
+      <c r="V60">
+        <v>63.470999999999997</v>
+      </c>
+      <c r="W60">
+        <v>-7.923</v>
+      </c>
+      <c r="X60">
+        <v>-23.722999999999999</v>
+      </c>
+      <c r="Y60">
+        <v>37.6</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>48.973999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42281</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>54.863</v>
+      </c>
+      <c r="D61">
+        <v>563.43600000000004</v>
+      </c>
+      <c r="E61">
+        <v>414.19299999999998</v>
+      </c>
+      <c r="F61">
+        <v>255.40299999999999</v>
+      </c>
+      <c r="G61">
+        <v>1073.837</v>
+      </c>
+      <c r="H61">
+        <v>4031.6669999999999</v>
+      </c>
+      <c r="I61">
+        <v>149.684</v>
+      </c>
+      <c r="J61">
+        <v>989.86900000000003</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>554.27599999999995</v>
+      </c>
+      <c r="O61">
+        <v>1977.3430000000001</v>
+      </c>
+      <c r="P61">
+        <v>1028.376</v>
+      </c>
+      <c r="Q61">
+        <v>2.8959999999999999</v>
+      </c>
+      <c r="R61">
+        <v>42281</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>2054.3240000000001</v>
+      </c>
+      <c r="U61">
+        <v>195.066</v>
+      </c>
+      <c r="V61">
+        <v>60.725000000000001</v>
+      </c>
+      <c r="W61">
+        <v>-7.9379999999999997</v>
+      </c>
+      <c r="X61">
+        <v>-44.017000000000003</v>
+      </c>
+      <c r="Y61">
+        <v>37.4</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>54.863</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42372</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>68.254000000000005</v>
+      </c>
+      <c r="D62">
+        <v>450.58</v>
+      </c>
+      <c r="E62">
+        <v>415.06400000000002</v>
+      </c>
+      <c r="F62">
+        <v>221.74199999999999</v>
+      </c>
+      <c r="G62">
+        <v>1033.1610000000001</v>
+      </c>
+      <c r="H62">
+        <v>4166.2950000000001</v>
+      </c>
+      <c r="I62">
+        <v>140.97999999999999</v>
+      </c>
+      <c r="J62">
+        <v>974.66200000000003</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>561.48500000000001</v>
+      </c>
+      <c r="O62">
+        <v>2055.8539999999998</v>
+      </c>
+      <c r="P62">
+        <v>1012.885</v>
+      </c>
+      <c r="Q62">
+        <v>42.866</v>
+      </c>
+      <c r="R62">
+        <v>42372</v>
+      </c>
+      <c r="S62">
+        <v>8000</v>
+      </c>
+      <c r="T62">
+        <v>2110.4409999999998</v>
+      </c>
+      <c r="U62">
+        <v>237.93199999999999</v>
+      </c>
+      <c r="V62">
+        <v>125.239</v>
+      </c>
+      <c r="W62">
+        <v>-7.8339999999999996</v>
+      </c>
+      <c r="X62">
+        <v>-14.709</v>
+      </c>
+      <c r="Y62">
+        <v>37.1</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>68.254000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42463</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>47.466000000000001</v>
+      </c>
+      <c r="D63">
+        <v>498.01600000000002</v>
+      </c>
+      <c r="E63">
+        <v>436.755</v>
+      </c>
+      <c r="F63">
+        <v>235.21700000000001</v>
+      </c>
+      <c r="G63">
+        <v>1049.82</v>
+      </c>
+      <c r="H63">
+        <v>4210.7209999999995</v>
+      </c>
+      <c r="I63">
+        <v>159.47999999999999</v>
+      </c>
+      <c r="J63">
+        <v>1083.03</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-75.275000000000006</v>
+      </c>
+      <c r="N63">
+        <v>554.54700000000003</v>
+      </c>
+      <c r="O63">
+        <v>2161.241</v>
+      </c>
+      <c r="P63">
+        <v>1120.9649999999999</v>
+      </c>
+      <c r="Q63">
+        <v>-27.201000000000001</v>
+      </c>
+      <c r="R63">
+        <v>42463</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>2049.48</v>
+      </c>
+      <c r="U63">
+        <v>210.73099999999999</v>
+      </c>
+      <c r="V63">
+        <v>32.04</v>
+      </c>
+      <c r="W63">
+        <v>-7.843</v>
+      </c>
+      <c r="X63">
+        <v>-47.695</v>
+      </c>
+      <c r="Y63">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>47.466000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>63.856999999999999</v>
+      </c>
+      <c r="D64">
+        <v>536.24199999999996</v>
+      </c>
+      <c r="E64">
+        <v>435.822</v>
+      </c>
+      <c r="F64">
+        <v>253.85400000000001</v>
+      </c>
+      <c r="G64">
+        <v>1078.9469999999999</v>
+      </c>
+      <c r="H64">
+        <v>4193.9960000000001</v>
+      </c>
+      <c r="I64">
+        <v>156.44200000000001</v>
+      </c>
+      <c r="J64">
+        <v>1020.434</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>561.18100000000004</v>
+      </c>
+      <c r="O64">
+        <v>2105.7930000000001</v>
+      </c>
+      <c r="P64">
+        <v>1058.0809999999999</v>
+      </c>
+      <c r="Q64">
+        <v>37.351999999999997</v>
+      </c>
+      <c r="R64">
+        <v>42554</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>2088.203</v>
+      </c>
+      <c r="U64">
+        <v>248.083</v>
+      </c>
+      <c r="V64">
+        <v>96.238</v>
+      </c>
+      <c r="W64">
+        <v>-7.6310000000000002</v>
+      </c>
+      <c r="X64">
+        <v>-64.744</v>
+      </c>
+      <c r="Y64">
+        <v>36.5</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>63.856999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42645</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>58.127000000000002</v>
+      </c>
+      <c r="D65">
+        <v>514.48900000000003</v>
+      </c>
+      <c r="E65">
+        <v>443.27499999999998</v>
+      </c>
+      <c r="F65">
+        <v>248.55</v>
+      </c>
+      <c r="G65">
+        <v>1153.566</v>
+      </c>
+      <c r="H65">
+        <v>4304.5559999999996</v>
+      </c>
+      <c r="I65">
+        <v>162.321</v>
+      </c>
+      <c r="J65">
+        <v>1095.6849999999999</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>547.99099999999999</v>
+      </c>
+      <c r="O65">
+        <v>2169.134</v>
+      </c>
+      <c r="P65">
+        <v>1133.085</v>
+      </c>
+      <c r="Q65">
+        <v>63.58</v>
+      </c>
+      <c r="R65">
+        <v>42645</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>2135.422</v>
+      </c>
+      <c r="U65">
+        <v>311.66300000000001</v>
+      </c>
+      <c r="V65">
+        <v>73.614000000000004</v>
+      </c>
+      <c r="W65">
+        <v>-7.657</v>
+      </c>
+      <c r="X65">
+        <v>59.796999999999997</v>
+      </c>
+      <c r="Y65">
+        <v>36.24</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>58.127000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>64.849000000000004</v>
+      </c>
+      <c r="D66">
+        <v>566.77</v>
+      </c>
+      <c r="E66">
+        <v>425.58800000000002</v>
+      </c>
+      <c r="F66">
+        <v>276.16300000000001</v>
+      </c>
+      <c r="G66">
+        <v>1189.931</v>
+      </c>
+      <c r="H66">
+        <v>4276.683</v>
+      </c>
+      <c r="I66">
+        <v>168.03299999999999</v>
+      </c>
+      <c r="J66">
+        <v>1009.354</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>603.35500000000002</v>
+      </c>
+      <c r="O66">
+        <v>2123.1129999999998</v>
+      </c>
+      <c r="P66">
+        <v>1046.4259999999999</v>
+      </c>
+      <c r="Q66">
+        <v>47.601999999999997</v>
+      </c>
+      <c r="R66">
+        <v>42736</v>
+      </c>
+      <c r="S66">
+        <v>8000</v>
+      </c>
+      <c r="T66">
+        <v>2153.5700000000002</v>
+      </c>
+      <c r="U66">
+        <v>359.26499999999999</v>
+      </c>
+      <c r="V66">
+        <v>148.72300000000001</v>
+      </c>
+      <c r="W66">
+        <v>-7.6680000000000001</v>
+      </c>
+      <c r="X66">
+        <v>-62.369</v>
+      </c>
+      <c r="Y66">
+        <v>35.9</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>64.849000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42827</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>38.603000000000002</v>
+      </c>
+      <c r="D67">
+        <v>514.11500000000001</v>
+      </c>
+      <c r="E67">
+        <v>411.084</v>
+      </c>
+      <c r="F67">
+        <v>241.93199999999999</v>
+      </c>
+      <c r="G67">
+        <v>1116.579</v>
+      </c>
+      <c r="H67">
+        <v>4340.5010000000002</v>
+      </c>
+      <c r="I67">
+        <v>158.11799999999999</v>
+      </c>
+      <c r="J67">
+        <v>1017.077</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-146.23699999999999</v>
+      </c>
+      <c r="N67">
+        <v>600.60799999999995</v>
+      </c>
+      <c r="O67">
+        <v>2131.5140000000001</v>
+      </c>
+      <c r="P67">
+        <v>1054.864</v>
+      </c>
+      <c r="Q67">
+        <v>-85.938999999999993</v>
+      </c>
+      <c r="R67">
+        <v>42827</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>2208.9870000000001</v>
+      </c>
+      <c r="U67">
+        <v>288.32900000000001</v>
+      </c>
+      <c r="V67">
+        <v>53.735999999999997</v>
+      </c>
+      <c r="W67">
+        <v>-7.673</v>
+      </c>
+      <c r="X67">
+        <v>-16.181000000000001</v>
+      </c>
+      <c r="Y67">
+        <v>35.6</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>38.603000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42918</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>204.06899999999999</v>
+      </c>
+      <c r="D68">
+        <v>546.96199999999999</v>
+      </c>
+      <c r="E68">
+        <v>440.41199999999998</v>
+      </c>
+      <c r="F68">
+        <v>259.702</v>
+      </c>
+      <c r="G68">
+        <v>1433.826</v>
+      </c>
+      <c r="H68">
+        <v>4605.1040000000003</v>
+      </c>
+      <c r="I68">
+        <v>153.75399999999999</v>
+      </c>
+      <c r="J68">
+        <v>1054.095</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>589.38800000000003</v>
+      </c>
+      <c r="O68">
+        <v>2166.4679999999998</v>
+      </c>
+      <c r="P68">
+        <v>1091.6199999999999</v>
+      </c>
+      <c r="Q68">
+        <v>325.92899999999997</v>
+      </c>
+      <c r="R68">
+        <v>42918</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>2438.636</v>
+      </c>
+      <c r="U68">
+        <v>616.30799999999999</v>
+      </c>
+      <c r="V68">
+        <v>48.116999999999997</v>
+      </c>
+      <c r="W68">
+        <v>-7.69</v>
+      </c>
+      <c r="X68">
+        <v>-2.5859999999999999</v>
+      </c>
+      <c r="Y68">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>204.06899999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>91.078000000000003</v>
+      </c>
+      <c r="D69">
+        <v>554.27499999999998</v>
+      </c>
+      <c r="E69">
+        <v>440.649</v>
+      </c>
+      <c r="F69">
+        <v>268.96699999999998</v>
+      </c>
+      <c r="G69">
+        <v>1545.66</v>
+      </c>
+      <c r="H69">
+        <v>4738.9549999999999</v>
+      </c>
+      <c r="I69">
+        <v>163.73500000000001</v>
+      </c>
+      <c r="J69">
+        <v>1074.3689999999999</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>597.51199999999994</v>
+      </c>
+      <c r="O69">
+        <v>2202.9259999999999</v>
+      </c>
+      <c r="P69">
+        <v>1110.5630000000001</v>
+      </c>
+      <c r="Q69">
+        <v>93.165999999999997</v>
+      </c>
+      <c r="R69">
+        <v>43009</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>2536.029</v>
+      </c>
+      <c r="U69">
+        <v>709.48800000000006</v>
+      </c>
+      <c r="V69">
+        <v>58.503999999999998</v>
+      </c>
+      <c r="W69">
+        <v>-7.7140000000000004</v>
+      </c>
+      <c r="X69">
+        <v>-15.683</v>
+      </c>
+      <c r="Y69">
+        <v>34.9</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>91.078000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-41.116999999999997</v>
+      </c>
+      <c r="D70">
+        <v>641.63</v>
+      </c>
+      <c r="E70">
+        <v>552.30399999999997</v>
+      </c>
+      <c r="F70">
+        <v>309.37700000000001</v>
+      </c>
+      <c r="G70">
+        <v>1199.9549999999999</v>
+      </c>
+      <c r="H70">
+        <v>6091.4629999999997</v>
+      </c>
+      <c r="I70">
+        <v>222.09299999999999</v>
+      </c>
+      <c r="J70">
+        <v>1754.3030000000001</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>950.90200000000004</v>
+      </c>
+      <c r="O70">
+        <v>3588.2750000000001</v>
+      </c>
+      <c r="P70">
+        <v>2006.1089999999999</v>
+      </c>
+      <c r="Q70">
+        <v>-507.35399999999998</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>11000</v>
+      </c>
+      <c r="T70">
+        <v>2503.1880000000001</v>
+      </c>
+      <c r="U70">
+        <v>202.13399999999999</v>
+      </c>
+      <c r="V70">
+        <v>128.096</v>
+      </c>
+      <c r="W70">
+        <v>-7.7160000000000002</v>
+      </c>
+      <c r="X70">
+        <v>816.68600000000004</v>
+      </c>
+      <c r="Y70">
+        <v>34.5</v>
+      </c>
+      <c r="Z70">
+        <v>-10.782999999999999</v>
+      </c>
+      <c r="AA70">
+        <v>-41.116999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>26.024000000000001</v>
+      </c>
+      <c r="D71">
+        <v>643.97199999999998</v>
+      </c>
+      <c r="E71">
+        <v>575.74</v>
+      </c>
+      <c r="F71">
+        <v>301.43</v>
+      </c>
+      <c r="G71">
+        <v>1234.0039999999999</v>
+      </c>
+      <c r="H71">
+        <v>6126.1859999999997</v>
+      </c>
+      <c r="I71">
+        <v>215.404</v>
+      </c>
+      <c r="J71">
+        <v>1825.498</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-150.00800000000001</v>
+      </c>
+      <c r="N71">
+        <v>925.98400000000004</v>
+      </c>
+      <c r="O71">
+        <v>3570.9340000000002</v>
+      </c>
+      <c r="P71">
+        <v>2077.4490000000001</v>
+      </c>
+      <c r="Q71">
+        <v>-21.366</v>
+      </c>
+      <c r="R71">
+        <v>43191</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>2555.252</v>
+      </c>
+      <c r="U71">
+        <v>180.8</v>
+      </c>
+      <c r="V71">
+        <v>-14.558</v>
+      </c>
+      <c r="W71">
+        <v>-7.7270000000000003</v>
+      </c>
+      <c r="X71">
+        <v>13.009</v>
+      </c>
+      <c r="Y71">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>26.024000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>64.063000000000002</v>
+      </c>
+      <c r="D72">
+        <v>703.36199999999997</v>
+      </c>
+      <c r="E72">
+        <v>564.04100000000005</v>
+      </c>
+      <c r="F72">
+        <v>349.14</v>
+      </c>
+      <c r="G72">
+        <v>1202.413</v>
+      </c>
+      <c r="H72">
+        <v>5957.7780000000002</v>
+      </c>
+      <c r="I72">
+        <v>197.12799999999999</v>
+      </c>
+      <c r="J72">
+        <v>1950.153</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>712.69299999999998</v>
+      </c>
+      <c r="O72">
+        <v>3440.6010000000001</v>
+      </c>
+      <c r="P72">
+        <v>2001.268</v>
+      </c>
+      <c r="Q72">
+        <v>-17.408999999999999</v>
+      </c>
+      <c r="R72">
+        <v>43282</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>2517.1770000000001</v>
+      </c>
+      <c r="U72">
+        <v>163.392</v>
+      </c>
+      <c r="V72">
+        <v>72.984999999999999</v>
+      </c>
+      <c r="W72">
+        <v>-7.7439999999999998</v>
+      </c>
+      <c r="X72">
+        <v>-25.94</v>
+      </c>
+      <c r="Y72">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>64.063000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>76.548000000000002</v>
+      </c>
+      <c r="D73">
+        <v>674.31299999999999</v>
+      </c>
+      <c r="E73">
+        <v>551.38499999999999</v>
+      </c>
+      <c r="F73">
+        <v>332.327</v>
+      </c>
+      <c r="G73">
+        <v>1165.4949999999999</v>
+      </c>
+      <c r="H73">
+        <v>5862.3549999999996</v>
+      </c>
+      <c r="I73">
+        <v>180.69300000000001</v>
+      </c>
+      <c r="J73">
+        <v>1849.1020000000001</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>686.75199999999995</v>
+      </c>
+      <c r="O73">
+        <v>3289.886</v>
+      </c>
+      <c r="P73">
+        <v>1902.5740000000001</v>
+      </c>
+      <c r="Q73">
+        <v>-10.879</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>2572.4690000000001</v>
+      </c>
+      <c r="U73">
+        <v>149.51300000000001</v>
+      </c>
+      <c r="V73">
+        <v>93.191999999999993</v>
+      </c>
+      <c r="W73">
+        <v>-7.7510000000000003</v>
+      </c>
+      <c r="X73">
+        <v>-109.03100000000001</v>
+      </c>
+      <c r="Y73">
+        <v>33.4</v>
+      </c>
+      <c r="Z73">
+        <v>-5.5</v>
+      </c>
+      <c r="AA73">
+        <v>76.548000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43464</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>71.292000000000002</v>
+      </c>
+      <c r="D74">
+        <v>756.34900000000005</v>
+      </c>
+      <c r="E74">
+        <v>632.66899999999998</v>
+      </c>
+      <c r="F74">
+        <v>377.36200000000002</v>
+      </c>
+      <c r="G74">
+        <v>1234.634</v>
+      </c>
+      <c r="H74">
+        <v>5975.5219999999999</v>
+      </c>
+      <c r="I74">
+        <v>220.94900000000001</v>
+      </c>
+      <c r="J74">
+        <v>1843.624</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>771.63099999999997</v>
+      </c>
+      <c r="O74">
+        <v>3390.567</v>
+      </c>
+      <c r="P74">
+        <v>1891.48</v>
+      </c>
+      <c r="Q74">
+        <v>13.599</v>
+      </c>
+      <c r="R74">
+        <v>43464</v>
+      </c>
+      <c r="S74">
+        <v>12500</v>
+      </c>
+      <c r="T74">
+        <v>2584.9549999999999</v>
+      </c>
+      <c r="U74">
+        <v>163.11099999999999</v>
+      </c>
+      <c r="V74">
+        <v>159.41900000000001</v>
+      </c>
+      <c r="W74">
+        <v>-7.7869999999999999</v>
+      </c>
+      <c r="X74">
+        <v>-57.268000000000001</v>
+      </c>
+      <c r="Y74">
+        <v>33</v>
+      </c>
+      <c r="Z74">
+        <v>-1.5189999999999999</v>
+      </c>
+      <c r="AA74">
+        <v>71.292000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>35.411999999999999</v>
+      </c>
+      <c r="D75">
+        <v>648.73699999999997</v>
+      </c>
+      <c r="E75">
+        <v>623.92700000000002</v>
+      </c>
+      <c r="F75">
+        <v>308.089</v>
+      </c>
+      <c r="G75">
+        <v>1247.646</v>
+      </c>
+      <c r="H75">
+        <v>6086.4970000000003</v>
+      </c>
+      <c r="I75">
+        <v>219.34100000000001</v>
+      </c>
+      <c r="J75">
+        <v>1848.9349999999999</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-155.476</v>
+      </c>
+      <c r="N75">
+        <v>742.26800000000003</v>
+      </c>
+      <c r="O75">
+        <v>3448.0250000000001</v>
+      </c>
+      <c r="P75">
+        <v>2068.0520000000001</v>
+      </c>
+      <c r="Q75">
+        <v>-28.859000000000002</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>2638.4720000000002</v>
+      </c>
+      <c r="U75">
+        <v>134.25200000000001</v>
+      </c>
+      <c r="V75">
+        <v>-5.3159999999999998</v>
+      </c>
+      <c r="W75">
+        <v>-7.7430000000000003</v>
+      </c>
+      <c r="X75">
+        <v>5.2350000000000003</v>
+      </c>
+      <c r="Y75">
+        <v>167.74799999999999</v>
+      </c>
+      <c r="Z75">
+        <v>-0.51900000000000002</v>
+      </c>
+      <c r="AA75">
+        <v>35.411999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>69.087000000000003</v>
+      </c>
+      <c r="D76">
+        <v>722.51700000000005</v>
+      </c>
+      <c r="E76">
+        <v>654.45399999999995</v>
+      </c>
+      <c r="F76">
+        <v>353.09300000000002</v>
+      </c>
+      <c r="G76">
+        <v>1337.761</v>
+      </c>
+      <c r="H76">
+        <v>6399.0720000000001</v>
+      </c>
+      <c r="I76">
+        <v>188.05099999999999</v>
+      </c>
+      <c r="J76">
+        <v>2104.4659999999999</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>706.79899999999998</v>
+      </c>
+      <c r="O76">
+        <v>3692.2049999999999</v>
+      </c>
+      <c r="P76">
+        <v>2316.9679999999998</v>
+      </c>
+      <c r="Q76">
+        <v>15.763999999999999</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>2706.8670000000002</v>
+      </c>
+      <c r="U76">
+        <v>150.01599999999999</v>
+      </c>
+      <c r="V76">
+        <v>46.859000000000002</v>
+      </c>
+      <c r="W76">
+        <v>-7.7640000000000002</v>
+      </c>
+      <c r="X76">
+        <v>225.959</v>
+      </c>
+      <c r="Y76">
+        <v>164.011</v>
+      </c>
+      <c r="Z76">
+        <v>-0.34899999999999998</v>
+      </c>
+      <c r="AA76">
+        <v>69.087000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>58.558</v>
+      </c>
+      <c r="D77">
+        <v>706.923</v>
+      </c>
+      <c r="E77">
+        <v>646.28599999999994</v>
+      </c>
+      <c r="F77">
+        <v>349.97500000000002</v>
+      </c>
+      <c r="G77">
+        <v>1548.405</v>
+      </c>
+      <c r="H77">
+        <v>6489.0810000000001</v>
+      </c>
+      <c r="I77">
+        <v>190.261</v>
+      </c>
+      <c r="J77">
+        <v>1750.925</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1188.1020000000001</v>
+      </c>
+      <c r="O77">
+        <v>3782.2840000000001</v>
+      </c>
+      <c r="P77">
+        <v>2448.2440000000001</v>
+      </c>
+      <c r="Q77">
+        <v>242.75700000000001</v>
+      </c>
+      <c r="R77">
+        <v>43737</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>2706.797</v>
+      </c>
+      <c r="U77">
+        <v>392.96899999999999</v>
+      </c>
+      <c r="V77">
+        <v>106.715</v>
+      </c>
+      <c r="W77">
+        <v>-7.7750000000000004</v>
+      </c>
+      <c r="X77">
+        <v>170.13300000000001</v>
+      </c>
+      <c r="Y77">
+        <v>153.21600000000001</v>
+      </c>
+      <c r="Z77">
+        <v>-4.5190000000000001</v>
+      </c>
+      <c r="AA77">
+        <v>58.558</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>64.501000000000005</v>
+      </c>
+      <c r="D78">
+        <v>805.49599999999998</v>
+      </c>
+      <c r="E78">
+        <v>725.18399999999997</v>
+      </c>
+      <c r="F78">
+        <v>406.51299999999998</v>
+      </c>
+      <c r="G78">
+        <v>1374.3789999999999</v>
+      </c>
+      <c r="H78">
+        <v>6538.5640000000003</v>
+      </c>
+      <c r="I78">
+        <v>235.85499999999999</v>
+      </c>
+      <c r="J78">
+        <v>2064.0410000000002</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>762.83199999999999</v>
+      </c>
+      <c r="O78">
+        <v>3724.74</v>
+      </c>
+      <c r="P78">
+        <v>2256.9870000000001</v>
+      </c>
+      <c r="Q78">
+        <v>-204.083</v>
+      </c>
+      <c r="R78">
+        <v>43828</v>
+      </c>
+      <c r="S78">
+        <v>13000</v>
+      </c>
+      <c r="T78">
+        <v>2813.8240000000001</v>
+      </c>
+      <c r="U78">
+        <v>191.87700000000001</v>
+      </c>
+      <c r="V78">
+        <v>215.21100000000001</v>
+      </c>
+      <c r="W78">
+        <v>-7.7770000000000001</v>
+      </c>
+      <c r="X78">
+        <v>-251.197</v>
+      </c>
+      <c r="Y78">
+        <v>146.399</v>
+      </c>
+      <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
+        <v>64.501000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>33.664999999999999</v>
+      </c>
+      <c r="D79">
+        <v>652.39599999999996</v>
+      </c>
+      <c r="E79">
+        <v>626.15</v>
+      </c>
+      <c r="F79">
+        <v>309.11099999999999</v>
+      </c>
+      <c r="G79">
+        <v>1341.826</v>
+      </c>
+      <c r="H79">
+        <v>6384.3959999999997</v>
+      </c>
+      <c r="I79">
+        <v>233.227</v>
+      </c>
+      <c r="J79">
+        <v>2010.5250000000001</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-145.28299999999999</v>
+      </c>
+      <c r="N79">
+        <v>730.14400000000001</v>
+      </c>
+      <c r="O79">
+        <v>3624.65</v>
+      </c>
+      <c r="P79">
+        <v>2200.0059999999999</v>
+      </c>
+      <c r="Q79">
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="R79">
+        <v>43926</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>2759.7460000000001</v>
+      </c>
+      <c r="U79">
+        <v>195.14599999999999</v>
+      </c>
+      <c r="V79">
+        <v>60.05</v>
+      </c>
+      <c r="W79">
+        <v>-7.7809999999999997</v>
+      </c>
+      <c r="X79">
+        <v>-24.591999999999999</v>
+      </c>
+      <c r="Y79">
+        <v>179.827</v>
+      </c>
+      <c r="Z79">
+        <v>-1.6379999999999999</v>
+      </c>
+      <c r="AA79">
+        <v>33.664999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>137.16200000000001</v>
+      </c>
+      <c r="D80">
+        <v>811.71799999999996</v>
+      </c>
+      <c r="E80">
+        <v>708.79899999999998</v>
+      </c>
+      <c r="F80">
+        <v>447.74400000000003</v>
+      </c>
+      <c r="G80">
+        <v>1531.413</v>
+      </c>
+      <c r="H80">
+        <v>6636.8159999999998</v>
+      </c>
+      <c r="I80">
+        <v>255.137</v>
+      </c>
+      <c r="J80">
+        <v>1624.9960000000001</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1163.2560000000001</v>
+      </c>
+      <c r="O80">
+        <v>3669.3530000000001</v>
+      </c>
+      <c r="P80">
+        <v>2149.2310000000002</v>
+      </c>
+      <c r="Q80">
+        <v>24.771999999999998</v>
+      </c>
+      <c r="R80">
+        <v>44017</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>2967.4630000000002</v>
+      </c>
+      <c r="U80">
+        <v>218.536</v>
+      </c>
+      <c r="V80">
+        <v>138.596</v>
+      </c>
+      <c r="W80">
+        <v>-7.7910000000000004</v>
+      </c>
+      <c r="X80">
+        <v>-95.774000000000001</v>
+      </c>
+      <c r="Y80">
+        <v>177.893</v>
+      </c>
+      <c r="Z80">
+        <v>-5.7549999999999999</v>
+      </c>
+      <c r="AA80">
+        <v>137.16200000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>176.69900000000001</v>
+      </c>
+      <c r="D81">
+        <v>964.02499999999998</v>
+      </c>
+      <c r="E81">
+        <v>797.91099999999994</v>
+      </c>
+      <c r="F81">
+        <v>527.745</v>
+      </c>
+      <c r="G81">
+        <v>1675.8209999999999</v>
+      </c>
+      <c r="H81">
+        <v>6865.5649999999996</v>
+      </c>
+      <c r="I81">
+        <v>258.03800000000001</v>
+      </c>
+      <c r="J81">
+        <v>1492.633</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1244.797</v>
+      </c>
+      <c r="O81">
+        <v>3633.884</v>
+      </c>
+      <c r="P81">
+        <v>2028.5039999999999</v>
+      </c>
+      <c r="Q81">
+        <v>38.462000000000003</v>
+      </c>
+      <c r="R81">
+        <v>44108</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>3231.681</v>
+      </c>
+      <c r="U81">
+        <v>258.29300000000001</v>
+      </c>
+      <c r="V81">
+        <v>211.434</v>
+      </c>
+      <c r="W81">
+        <v>-7.8090000000000002</v>
+      </c>
+      <c r="X81">
+        <v>-155.93899999999999</v>
+      </c>
+      <c r="Y81">
+        <v>175.654</v>
+      </c>
+      <c r="Z81">
+        <v>-2.1659999999999999</v>
+      </c>
+      <c r="AA81">
+        <v>176.69900000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>380.36099999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1354.606</v>
       </c>
-      <c r="E42">
-        <v>1205.08</v>
-      </c>
-      <c r="F42">
+      <c r="E82">
+        <v>1155.1089999999999</v>
+      </c>
+      <c r="F82">
         <v>836.03800000000001</v>
       </c>
-      <c r="G42">
-        <v>2288.8910000000001</v>
-      </c>
-      <c r="H42">
-        <v>8010.2860000000001</v>
-      </c>
-      <c r="I42">
+      <c r="G82">
+        <v>2238.92</v>
+      </c>
+      <c r="H82">
+        <v>7960.3149999999996</v>
+      </c>
+      <c r="I82">
         <v>327.32499999999999</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>1609.701</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>-382.464</v>
-      </c>
-      <c r="N42">
-        <v>1702.16</v>
-      </c>
-      <c r="O42">
-        <v>4274.7939999999999</v>
-      </c>
-      <c r="P42">
-        <v>2179.0509999999999</v>
-      </c>
-      <c r="Q42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1652.1890000000001</v>
+      </c>
+      <c r="O82">
+        <v>4224.8230000000003</v>
+      </c>
+      <c r="P82">
+        <v>2219.3809999999999</v>
+      </c>
+      <c r="Q82">
         <v>144.21100000000001</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44199</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>14000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>3735.4920000000002</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>402.036</v>
       </c>
-      <c r="V42">
-        <v>482.09899999999999</v>
-      </c>
-      <c r="W42">
+      <c r="V82">
+        <v>482.09699999999998</v>
+      </c>
+      <c r="W82">
         <v>-7.8310000000000004</v>
       </c>
-      <c r="X42">
-        <v>73.432000000000002</v>
-      </c>
-      <c r="Y42">
+      <c r="X82">
+        <v>73.433000000000007</v>
+      </c>
+      <c r="Y82">
         <v>188.40199999999999</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-10.5</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>380.36099999999999</v>
       </c>
     </row>
